--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="276">
   <si>
     <t xml:space="preserve"> "     Advisorfirm NSAdmin Record04"</t>
   </si>
@@ -822,7 +822,37 @@
     <t>AR_Up3</t>
   </si>
   <si>
-    <t>Advisorcon05 Adm.rec05 - Updated</t>
+    <t>AR_Up4</t>
+  </si>
+  <si>
+    <t>Deal NSAdmin Company Record05</t>
+  </si>
+  <si>
+    <t>Deal NSAdmin Company Record05 - Updated</t>
+  </si>
+  <si>
+    <t>CompanyFund NSAdmin Record07</t>
+  </si>
+  <si>
+    <t>AR_Up5</t>
+  </si>
+  <si>
+    <t>Fundraising with Institution NSAdmin Record03</t>
+  </si>
+  <si>
+    <t>Fundraising with Institution NSAdmin Record03 - Updated</t>
+  </si>
+  <si>
+    <t>Intermediary  Type - TSK03</t>
+  </si>
+  <si>
+    <t>AR_Up6</t>
+  </si>
+  <si>
+    <t>AR_Up7</t>
+  </si>
+  <si>
+    <t>Intermediary  Type - Event03</t>
   </si>
 </sst>
 </file>
@@ -9193,17 +9223,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -9358,11 +9388,11 @@
       <c r="A3" t="s">
         <v>260</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>164</v>
       </c>
       <c r="D3">
-        <f>SUM(F3:U3)</f>
+        <f t="shared" ref="D3:D4" si="0">SUM(F3:U3)</f>
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -9422,13 +9452,13 @@
         <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D4">
-        <f>SUM(F4:U4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4" t="s">
@@ -9481,6 +9511,261 @@
       </c>
       <c r="U4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5">
+        <f>SUM(F5:U5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6">
+        <f>SUM(F6:U6)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D8" si="1">SUM(F7:U7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
     <sheet name="UpdatedData" sheetId="2" r:id="rId2"/>
+    <sheet name="Others" sheetId="3" r:id="rId3"/>
+    <sheet name="UpdatedRecordType" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="353">
   <si>
     <t xml:space="preserve"> "     Advisorfirm NSAdmin Record04"</t>
   </si>
@@ -804,9 +806,6 @@
     <t>Variable_Name</t>
   </si>
   <si>
-    <t>Advisorfirm NSAdmin Record04</t>
-  </si>
-  <si>
     <t>AR_Up2</t>
   </si>
   <si>
@@ -825,41 +824,275 @@
     <t>AR_Up4</t>
   </si>
   <si>
-    <t>Deal NSAdmin Company Record05</t>
-  </si>
-  <si>
     <t>Deal NSAdmin Company Record05 - Updated</t>
   </si>
   <si>
-    <t>CompanyFund NSAdmin Record07</t>
-  </si>
-  <si>
     <t>AR_Up5</t>
   </si>
   <si>
-    <t>Fundraising with Institution NSAdmin Record03</t>
-  </si>
-  <si>
     <t>Fundraising with Institution NSAdmin Record03 - Updated</t>
   </si>
   <si>
-    <t>Intermediary  Type - TSK03</t>
-  </si>
-  <si>
     <t>AR_Up6</t>
   </si>
   <si>
     <t>AR_Up7</t>
   </si>
   <si>
-    <t>Intermediary  Type - Event03</t>
+    <t>Legal_Name</t>
+  </si>
+  <si>
+    <t>Record_Type</t>
+  </si>
+  <si>
+    <t>Other_LabelNames</t>
+  </si>
+  <si>
+    <t>Other_LabelValues</t>
+  </si>
+  <si>
+    <t>AR_Firm1</t>
+  </si>
+  <si>
+    <t>Consultant RT&lt;break&gt;IT Firm</t>
+  </si>
+  <si>
+    <t>AR_Deal1</t>
+  </si>
+  <si>
+    <t>AR_Contact1</t>
+  </si>
+  <si>
+    <t>Banker&lt;break&gt;Broker</t>
+  </si>
+  <si>
+    <t>Custom Contact Email&lt;break&gt;Custom Contact Phone&lt;break&gt;Custom Contact Text&lt;break&gt;Custom Contact TA&lt;break&gt;Custom Contact LTA&lt;break&gt;Custom Contact RTA</t>
+  </si>
+  <si>
+    <t>Email&lt;break&gt;Phone&lt;break&gt;Text&lt;break&gt;Text Area&lt;break&gt;Text Area (Long)&lt;break&gt;Text Area (Rich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;break&gt; &lt;break&gt;255&lt;break&gt; &lt;break&gt;32768&lt;break&gt;32768</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>Data_Type</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>AR_Fund1</t>
+  </si>
+  <si>
+    <t>AR_Fundraising1</t>
+  </si>
+  <si>
+    <t>AR_Up8</t>
+  </si>
+  <si>
+    <t>Consultant RT</t>
+  </si>
+  <si>
+    <t>IT Firm</t>
+  </si>
+  <si>
+    <t>BuySide Deal</t>
+  </si>
+  <si>
+    <t>Capital Raise</t>
+  </si>
+  <si>
+    <t>SellSide Deal</t>
+  </si>
+  <si>
+    <t>Mutual Fund</t>
+  </si>
+  <si>
+    <t>Trust Fund</t>
+  </si>
+  <si>
+    <t>FRGRT</t>
+  </si>
+  <si>
+    <t>MSGRT</t>
+  </si>
+  <si>
+    <t>FRGRT&lt;break&gt;MSGRT</t>
+  </si>
+  <si>
+    <t>Mutual Fund&lt;break&gt;Trust Fund</t>
+  </si>
+  <si>
+    <t>BuySide Deal&lt;break&gt;SellSide Deal&lt;break&gt;Capital Raise</t>
+  </si>
+  <si>
+    <t>AR_NewFirm1</t>
+  </si>
+  <si>
+    <t>AR_NewFirm2</t>
+  </si>
+  <si>
+    <t>Tata Motor</t>
+  </si>
+  <si>
+    <t>GlobalLogic</t>
+  </si>
+  <si>
+    <t>AR_Up9</t>
+  </si>
+  <si>
+    <t>AR_Up10</t>
+  </si>
+  <si>
+    <t>AR_Up11</t>
+  </si>
+  <si>
+    <t>AR_Up12</t>
+  </si>
+  <si>
+    <t>AR_Up13</t>
+  </si>
+  <si>
+    <t>AR_Up14</t>
+  </si>
+  <si>
+    <t>AR_Up15</t>
+  </si>
+  <si>
+    <t>AR_Up16</t>
+  </si>
+  <si>
+    <t>AR_Up17</t>
+  </si>
+  <si>
+    <t>AR_Up18</t>
+  </si>
+  <si>
+    <t>"Advisorcon05 Adm.rec05"</t>
+  </si>
+  <si>
+    <t>"Actavis Generics"</t>
+  </si>
+  <si>
+    <t>"Clear Channel"</t>
+  </si>
+  <si>
+    <t>"Macquarie Group"</t>
+  </si>
+  <si>
+    <t>"Tata Motor"</t>
+  </si>
+  <si>
+    <t>"SellSide Deal"</t>
+  </si>
+  <si>
+    <t>"BuySide Deal"</t>
+  </si>
+  <si>
+    <t>"Capital Raise"</t>
+  </si>
+  <si>
+    <t>"Mutual Fund 2020"</t>
+  </si>
+  <si>
+    <t>"Trust Fund 2018"</t>
+  </si>
+  <si>
+    <t>AR_Up19</t>
+  </si>
+  <si>
+    <t>"Central Square Technologies" "Westpac Corporation"</t>
+  </si>
+  <si>
+    <t>Advisor&lt;break&gt;Company&lt;break&gt;Institution&lt;break&gt;Intermediary&lt;break&gt;Lender&lt;break&gt;Limited Partner&lt;break&gt;Portfolio Company</t>
+  </si>
+  <si>
+    <t>Advisor_Updated</t>
+  </si>
+  <si>
+    <t>Company_Updated</t>
+  </si>
+  <si>
+    <t>Institution_Updated</t>
+  </si>
+  <si>
+    <t>Intermediary_Updated</t>
+  </si>
+  <si>
+    <t>Lender_Updated</t>
+  </si>
+  <si>
+    <t>Limited Partner_Updated</t>
+  </si>
+  <si>
+    <t>Portfolio Company_Updated</t>
+  </si>
+  <si>
+    <t>Banker_Updated</t>
+  </si>
+  <si>
+    <t>Broker_Updated</t>
+  </si>
+  <si>
+    <t>BuySide Deal_Updated</t>
+  </si>
+  <si>
+    <t>Capital Raise_Updated</t>
+  </si>
+  <si>
+    <t>SellSide Deal_Updated</t>
+  </si>
+  <si>
+    <t>Mutual Fund_Updated</t>
+  </si>
+  <si>
+    <t>Trust Fund_Updated</t>
+  </si>
+  <si>
+    <t>FRGRT_Updated</t>
+  </si>
+  <si>
+    <t>MSGRT_Updated</t>
+  </si>
+  <si>
+    <t>ARURT_1</t>
+  </si>
+  <si>
+    <t>ARURT_2</t>
+  </si>
+  <si>
+    <t>ARURT_3</t>
+  </si>
+  <si>
+    <t>ARURT_4</t>
+  </si>
+  <si>
+    <t>AR_Up20</t>
+  </si>
+  <si>
+    <t>AR_Up21</t>
+  </si>
+  <si>
+    <t>AR_Up22</t>
+  </si>
+  <si>
+    <t>AR_Up23</t>
+  </si>
+  <si>
+    <t>AR_Up24</t>
+  </si>
+  <si>
+    <t>"Companycon01 Adm.rec01" "CompanyFund NSAdmin Record05"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,8 +1115,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -902,6 +1143,18 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -916,12 +1169,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9223,42 +9483,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="26" width="5.42578125" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>257</v>
@@ -9276,60 +9544,87 @@
         <v>253</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2">
-        <f>SUM(F2:U2)</f>
+        <f>SUM(F2:AD2)</f>
         <v>6</v>
       </c>
       <c r="E2" t="s">
@@ -9341,8 +9636,8 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="H2" t="s">
+        <v>181</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -9350,49 +9645,76 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>181</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>181</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="Q2" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" t="s">
+        <v>181</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>181</v>
+      </c>
+      <c r="W2" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>2</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">SUM(F3:U3)</f>
+        <f t="shared" ref="D3:D4" si="0">SUM(F3:AD3)</f>
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -9404,8 +9726,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="H3" t="s">
+        <v>181</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -9413,8 +9735,8 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>181</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -9423,39 +9745,66 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
+      <c r="Q3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" t="s">
+        <v>181</v>
+      </c>
+      <c r="S3" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" t="s">
+        <v>181</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>181</v>
+      </c>
+      <c r="W3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -9470,8 +9819,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
+      <c r="H4" t="s">
+        <v>181</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -9479,8 +9828,8 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>181</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -9489,228 +9838,336 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
+      <c r="Q4" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T4" t="s">
+        <v>181</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>181</v>
+      </c>
+      <c r="W4" t="s">
+        <v>181</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <f>SUM(F5:AD5)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" t="s">
+        <v>181</v>
+      </c>
+      <c r="S5" t="s">
+        <v>181</v>
+      </c>
+      <c r="T5" t="s">
+        <v>181</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>181</v>
+      </c>
+      <c r="W5" t="s">
+        <v>181</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6">
+        <f>SUM(F6:AD6)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>181</v>
+      </c>
+      <c r="R6" t="s">
+        <v>181</v>
+      </c>
+      <c r="S6" t="s">
+        <v>181</v>
+      </c>
+      <c r="T6" t="s">
+        <v>181</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>181</v>
+      </c>
+      <c r="W6" t="s">
+        <v>181</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>268</v>
       </c>
-      <c r="D5">
-        <f>SUM(F5:U5)</f>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D20" si="1">SUM(F7:AD7)</f>
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>181</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>181</v>
+      </c>
+      <c r="R7" t="s">
+        <v>181</v>
+      </c>
+      <c r="S7" t="s">
+        <v>181</v>
+      </c>
+      <c r="T7" t="s">
+        <v>181</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>181</v>
+      </c>
+      <c r="W7" t="s">
+        <v>181</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>269</v>
       </c>
-      <c r="B6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6">
-        <f>SUM(F6:U6)</f>
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D8" si="1">SUM(F7:U7)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>274</v>
-      </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -9725,8 +10182,8 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>181</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -9734,8 +10191,8 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>181</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -9746,25 +10203,2213 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
-        <v>181</v>
+      <c r="O8">
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="Q8" t="s">
+        <v>181</v>
+      </c>
+      <c r="R8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S8" t="s">
+        <v>181</v>
+      </c>
+      <c r="T8" t="s">
+        <v>181</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>181</v>
+      </c>
+      <c r="W8" t="s">
+        <v>181</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>1</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>445</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>35</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>181</v>
+      </c>
+      <c r="R9">
+        <v>27</v>
+      </c>
+      <c r="S9">
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <v>19</v>
+      </c>
+      <c r="U9" t="s">
+        <v>181</v>
+      </c>
+      <c r="V9">
+        <v>32</v>
+      </c>
+      <c r="W9">
+        <v>28</v>
+      </c>
+      <c r="X9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>175</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>181</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>181</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>181</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>181</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>181</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>181</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>181</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>181</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>9</v>
+      </c>
+      <c r="U15" t="s">
+        <v>181</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>181</v>
+      </c>
+      <c r="R16">
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>181</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>181</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>181</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>181</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>181</v>
+      </c>
+      <c r="V18">
+        <v>11</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>181</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
+        <v>181</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>14</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>181</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21">
+        <f>SUM(E21:AD21)</f>
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>15</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>181</v>
+      </c>
+      <c r="R21">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>17</v>
+      </c>
+      <c r="U21" t="s">
+        <v>181</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>50</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22">
+        <f>SUM(E22:AD22)</f>
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q22">
+        <v>30</v>
+      </c>
+      <c r="R22" t="s">
+        <v>181</v>
+      </c>
+      <c r="S22" t="s">
+        <v>181</v>
+      </c>
+      <c r="T22" t="s">
+        <v>181</v>
+      </c>
+      <c r="U22">
+        <v>30</v>
+      </c>
+      <c r="V22" t="s">
+        <v>181</v>
+      </c>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>50</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D25" si="2">SUM(E23:U23)</f>
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15</v>
+      </c>
+      <c r="P23">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>181</v>
+      </c>
+      <c r="R23" t="s">
+        <v>181</v>
+      </c>
+      <c r="S23" t="s">
+        <v>181</v>
+      </c>
+      <c r="T23" t="s">
+        <v>181</v>
+      </c>
+      <c r="U23">
+        <v>30</v>
+      </c>
+      <c r="V23" t="s">
+        <v>181</v>
+      </c>
+      <c r="W23" t="s">
+        <v>181</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>50</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>181</v>
+      </c>
+      <c r="R24" t="s">
+        <v>181</v>
+      </c>
+      <c r="S24" t="s">
+        <v>181</v>
+      </c>
+      <c r="T24" t="s">
+        <v>181</v>
+      </c>
+      <c r="U24">
+        <v>30</v>
+      </c>
+      <c r="V24" t="s">
+        <v>181</v>
+      </c>
+      <c r="W24" t="s">
+        <v>181</v>
+      </c>
+      <c r="X24" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>50</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>181</v>
+      </c>
+      <c r="R25" t="s">
+        <v>181</v>
+      </c>
+      <c r="S25" t="s">
+        <v>181</v>
+      </c>
+      <c r="T25" t="s">
+        <v>181</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>181</v>
+      </c>
+      <c r="W25" t="s">
+        <v>181</v>
+      </c>
+      <c r="X25" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="149.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="149.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2">
+        <f>SUM(E2:AD2)</f>
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>50</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">SUM(F3:AD3)</f>
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>181</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>0</v>
       </c>
     </row>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="357">
   <si>
     <t xml:space="preserve"> "     Advisorfirm NSAdmin Record04"</t>
   </si>
@@ -1086,6 +1086,18 @@
   </si>
   <si>
     <t>"Companycon01 Adm.rec01" "CompanyFund NSAdmin Record05"</t>
+  </si>
+  <si>
+    <t>AR_Up25</t>
+  </si>
+  <si>
+    <t>AR_Up26</t>
+  </si>
+  <si>
+    <t>AR_Up27</t>
+  </si>
+  <si>
+    <t>AR_Up28</t>
   </si>
 </sst>
 </file>
@@ -9483,10 +9495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11430,7 +11442,7 @@
         <v>229</v>
       </c>
       <c r="D22">
-        <f>SUM(E22:AD22)</f>
+        <f t="shared" ref="D22:D29" si="2">SUM(E22:AD22)</f>
         <v>140</v>
       </c>
       <c r="E22" t="s">
@@ -11520,8 +11532,8 @@
         <v>229</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:D25" si="2">SUM(E23:U23)</f>
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
         <v>181</v>
@@ -11611,7 +11623,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
         <v>181</v>
@@ -11779,6 +11791,366 @@
         <v>0</v>
       </c>
       <c r="AD25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>353</v>
+      </c>
+      <c r="B26">
+        <v>56789012</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>15</v>
+      </c>
+      <c r="P26">
+        <v>15</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>181</v>
+      </c>
+      <c r="R26" t="s">
+        <v>181</v>
+      </c>
+      <c r="S26" t="s">
+        <v>181</v>
+      </c>
+      <c r="T26" t="s">
+        <v>181</v>
+      </c>
+      <c r="U26">
+        <v>15</v>
+      </c>
+      <c r="V26" t="s">
+        <v>181</v>
+      </c>
+      <c r="W26" t="s">
+        <v>181</v>
+      </c>
+      <c r="X26">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>354</v>
+      </c>
+      <c r="B27">
+        <v>56789012</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>181</v>
+      </c>
+      <c r="R27" t="s">
+        <v>181</v>
+      </c>
+      <c r="S27" t="s">
+        <v>181</v>
+      </c>
+      <c r="T27" t="s">
+        <v>181</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>181</v>
+      </c>
+      <c r="W27" t="s">
+        <v>181</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="E28" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>35</v>
+      </c>
+      <c r="P28">
+        <v>30</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>181</v>
+      </c>
+      <c r="R28" t="s">
+        <v>181</v>
+      </c>
+      <c r="S28" t="s">
+        <v>181</v>
+      </c>
+      <c r="T28" t="s">
+        <v>181</v>
+      </c>
+      <c r="U28">
+        <v>60</v>
+      </c>
+      <c r="V28" t="s">
+        <v>181</v>
+      </c>
+      <c r="W28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X28">
+        <v>60</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA28">
+        <v>20</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>175</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>181</v>
+      </c>
+      <c r="R29" t="s">
+        <v>181</v>
+      </c>
+      <c r="S29" t="s">
+        <v>181</v>
+      </c>
+      <c r="T29" t="s">
+        <v>181</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>181</v>
+      </c>
+      <c r="W29" t="s">
+        <v>181</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>20</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <v>0</v>
       </c>
     </row>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="359">
   <si>
     <t xml:space="preserve"> "     Advisorfirm NSAdmin Record04"</t>
   </si>
@@ -1098,6 +1098,12 @@
   </si>
   <si>
     <t>AR_Up28</t>
+  </si>
+  <si>
+    <t>"Companyfirm NSAdmin Record10" "Sr. Developer" "Deal NSAdmin Advisor Record02" "LenderFund NSAdmin Record01" "Fundraising with LP NSAdmin Record02" "Institution Type - TSK01" "POCO Type - Event01" 2222222222 "mezzanine or distressed debt funds"</t>
+  </si>
+  <si>
+    <t>AR_Up29</t>
   </si>
 </sst>
 </file>
@@ -9495,10 +9501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11442,7 +11448,7 @@
         <v>229</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D29" si="2">SUM(E22:AD22)</f>
+        <f t="shared" ref="D22:D30" si="2">SUM(E22:AD22)</f>
         <v>140</v>
       </c>
       <c r="E22" t="s">
@@ -12151,6 +12157,96 @@
         <v>0</v>
       </c>
       <c r="AD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" t="s">
+        <v>357</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>181</v>
+      </c>
+      <c r="L30">
+        <v>15</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>15</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>181</v>
+      </c>
+      <c r="R30" t="s">
+        <v>181</v>
+      </c>
+      <c r="S30" t="s">
+        <v>181</v>
+      </c>
+      <c r="T30" t="s">
+        <v>181</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>181</v>
+      </c>
+      <c r="W30" t="s">
+        <v>181</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>22</v>
+      </c>
+      <c r="AC30">
+        <v>2</v>
+      </c>
+      <c r="AD30">
         <v>0</v>
       </c>
     </row>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="399">
   <si>
     <t xml:space="preserve"> "     Advisorfirm NSAdmin Record04"</t>
   </si>
@@ -1104,6 +1104,126 @@
   </si>
   <si>
     <t>AR_Up29</t>
+  </si>
+  <si>
+    <t>AR_Up30</t>
+  </si>
+  <si>
+    <t>AR_Up31</t>
+  </si>
+  <si>
+    <t>"Tata Motors ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>"Mahindra ~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>"Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>"Mahindra Automobile Task~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>"BHEL Eelectrical Event ~!@#^&amp;*()_+=-[]{}\|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>AR_Up32</t>
+  </si>
+  <si>
+    <t>AR_Up33</t>
+  </si>
+  <si>
+    <t>AR_Up34</t>
+  </si>
+  <si>
+    <t>AR_Up35</t>
+  </si>
+  <si>
+    <t>AR_Up36</t>
+  </si>
+  <si>
+    <t>"NSUser Record"</t>
+  </si>
+  <si>
+    <t>AR_Up37</t>
+  </si>
+  <si>
+    <t>LPcon</t>
+  </si>
+  <si>
+    <t>AR_Up38</t>
+  </si>
+  <si>
+    <t>AR_Up39</t>
+  </si>
+  <si>
+    <t>AR_Up40</t>
+  </si>
+  <si>
+    <t>AR_Up41</t>
+  </si>
+  <si>
+    <t>AR_Up42</t>
+  </si>
+  <si>
+    <t>AR_Up43</t>
+  </si>
+  <si>
+    <t>"Deal NSUser Company"</t>
+  </si>
+  <si>
+    <t>"Company Type - TSK01" "Company Type - TSK02" "Company Type - TSK03" "Company Type - TSK04" "Company Type - TSK05"</t>
+  </si>
+  <si>
+    <t>"Company Type Event01" "Company Type Event02" "Company Type Event03" "Company Type Event04" "Company Type Event05"</t>
+  </si>
+  <si>
+    <t>"LPfirm NSUser Record05"</t>
+  </si>
+  <si>
+    <t>"POCOcon02 User.rec02"</t>
+  </si>
+  <si>
+    <t>AR_Up44</t>
+  </si>
+  <si>
+    <t>AR_Up45</t>
+  </si>
+  <si>
+    <t>AR_Up46</t>
+  </si>
+  <si>
+    <t>AR_Up47</t>
+  </si>
+  <si>
+    <t>"NSAdmin Bulk Record"</t>
+  </si>
+  <si>
+    <t>"Deal NSAdmin"</t>
+  </si>
+  <si>
+    <t>"Fund NSAdmin Record"</t>
+  </si>
+  <si>
+    <t>"Fundraising NSAdmin Record"</t>
+  </si>
+  <si>
+    <t>"Type - TSK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Type - Event"</t>
+  </si>
+  <si>
+    <t>AR_Up48</t>
+  </si>
+  <si>
+    <t>AR_Up49</t>
+  </si>
+  <si>
+    <t>AR_Up50</t>
+  </si>
+  <si>
+    <t>AR_Up51</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:U6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9501,10 +9621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9631,7 +9751,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -9724,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>259</v>
       </c>
@@ -9814,7 +9934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -11080,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>312</v>
       </c>
@@ -11170,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>313</v>
       </c>
@@ -11260,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>324</v>
       </c>
@@ -11350,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>347</v>
       </c>
@@ -11440,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>348</v>
       </c>
@@ -11448,7 +11568,7 @@
         <v>229</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D30" si="2">SUM(E22:AD22)</f>
+        <f t="shared" ref="D22:D52" si="2">SUM(E22:AD22)</f>
         <v>140</v>
       </c>
       <c r="E22" t="s">
@@ -11530,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>349</v>
       </c>
@@ -11620,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>350</v>
       </c>
@@ -11710,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>351</v>
       </c>
@@ -11800,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>353</v>
       </c>
@@ -11890,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>354</v>
       </c>
@@ -11980,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>355</v>
       </c>
@@ -12070,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>356</v>
       </c>
@@ -12160,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>358</v>
       </c>
@@ -12250,8 +12370,1992 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>181</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>11</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>181</v>
+      </c>
+      <c r="R31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S31" t="s">
+        <v>181</v>
+      </c>
+      <c r="T31" t="s">
+        <v>181</v>
+      </c>
+      <c r="U31">
+        <v>6</v>
+      </c>
+      <c r="V31" t="s">
+        <v>181</v>
+      </c>
+      <c r="W31" t="s">
+        <v>181</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>21</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>181</v>
+      </c>
+      <c r="R32" t="s">
+        <v>181</v>
+      </c>
+      <c r="S32" t="s">
+        <v>181</v>
+      </c>
+      <c r="T32" t="s">
+        <v>181</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>181</v>
+      </c>
+      <c r="W32" t="s">
+        <v>181</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>20</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>181</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>181</v>
+      </c>
+      <c r="R33" t="s">
+        <v>181</v>
+      </c>
+      <c r="S33" t="s">
+        <v>181</v>
+      </c>
+      <c r="T33" t="s">
+        <v>181</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>181</v>
+      </c>
+      <c r="W33" t="s">
+        <v>181</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>367</v>
+      </c>
+      <c r="B34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>181</v>
+      </c>
+      <c r="R34" t="s">
+        <v>181</v>
+      </c>
+      <c r="S34" t="s">
+        <v>181</v>
+      </c>
+      <c r="T34" t="s">
+        <v>181</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>181</v>
+      </c>
+      <c r="W34" t="s">
+        <v>181</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" t="s">
+        <v>363</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>181</v>
+      </c>
+      <c r="R35" t="s">
+        <v>181</v>
+      </c>
+      <c r="S35" t="s">
+        <v>181</v>
+      </c>
+      <c r="T35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>181</v>
+      </c>
+      <c r="W35" t="s">
+        <v>181</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>369</v>
+      </c>
+      <c r="B36" t="s">
+        <v>364</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>181</v>
+      </c>
+      <c r="R36" t="s">
+        <v>181</v>
+      </c>
+      <c r="S36" t="s">
+        <v>181</v>
+      </c>
+      <c r="T36" t="s">
+        <v>181</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>181</v>
+      </c>
+      <c r="W36" t="s">
+        <v>181</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>370</v>
+      </c>
+      <c r="B37" t="s">
+        <v>365</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>181</v>
+      </c>
+      <c r="R37" t="s">
+        <v>181</v>
+      </c>
+      <c r="S37" t="s">
+        <v>181</v>
+      </c>
+      <c r="T37" t="s">
+        <v>181</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>181</v>
+      </c>
+      <c r="W37" t="s">
+        <v>181</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>15</v>
+      </c>
+      <c r="P38">
+        <v>20</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>181</v>
+      </c>
+      <c r="R38" t="s">
+        <v>181</v>
+      </c>
+      <c r="S38" t="s">
+        <v>181</v>
+      </c>
+      <c r="T38" t="s">
+        <v>181</v>
+      </c>
+      <c r="U38">
+        <v>35</v>
+      </c>
+      <c r="V38" t="s">
+        <v>181</v>
+      </c>
+      <c r="W38" t="s">
+        <v>181</v>
+      </c>
+      <c r="X38">
+        <v>35</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA38">
+        <v>15</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>175</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>374</v>
+      </c>
+      <c r="B39" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>181</v>
+      </c>
+      <c r="R39" t="s">
+        <v>181</v>
+      </c>
+      <c r="S39" t="s">
+        <v>181</v>
+      </c>
+      <c r="T39" t="s">
+        <v>181</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>181</v>
+      </c>
+      <c r="W39" t="s">
+        <v>181</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>181</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>181</v>
+      </c>
+      <c r="R40" t="s">
+        <v>181</v>
+      </c>
+      <c r="S40" t="s">
+        <v>181</v>
+      </c>
+      <c r="T40" t="s">
+        <v>181</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40" t="s">
+        <v>181</v>
+      </c>
+      <c r="W40" t="s">
+        <v>181</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>181</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>181</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>181</v>
+      </c>
+      <c r="R41" t="s">
+        <v>181</v>
+      </c>
+      <c r="S41" t="s">
+        <v>181</v>
+      </c>
+      <c r="T41" t="s">
+        <v>181</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>181</v>
+      </c>
+      <c r="W41" t="s">
+        <v>181</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>5</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42" t="s">
+        <v>382</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>181</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>181</v>
+      </c>
+      <c r="R42" t="s">
+        <v>181</v>
+      </c>
+      <c r="S42" t="s">
+        <v>181</v>
+      </c>
+      <c r="T42" t="s">
+        <v>181</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>181</v>
+      </c>
+      <c r="W42" t="s">
+        <v>181</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>5</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B43" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>181</v>
+      </c>
+      <c r="R43" t="s">
+        <v>181</v>
+      </c>
+      <c r="S43" t="s">
+        <v>181</v>
+      </c>
+      <c r="T43" t="s">
+        <v>181</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>181</v>
+      </c>
+      <c r="W43" t="s">
+        <v>181</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>7</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44" t="s">
+        <v>384</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>181</v>
+      </c>
+      <c r="R44" t="s">
+        <v>181</v>
+      </c>
+      <c r="S44" t="s">
+        <v>181</v>
+      </c>
+      <c r="T44" t="s">
+        <v>181</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>181</v>
+      </c>
+      <c r="W44" t="s">
+        <v>181</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>385</v>
+      </c>
+      <c r="B45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>181</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>181</v>
+      </c>
+      <c r="R45" t="s">
+        <v>181</v>
+      </c>
+      <c r="S45" t="s">
+        <v>181</v>
+      </c>
+      <c r="T45" t="s">
+        <v>181</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>181</v>
+      </c>
+      <c r="W45" t="s">
+        <v>181</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>386</v>
+      </c>
+      <c r="B46" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>181</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>181</v>
+      </c>
+      <c r="R46" t="s">
+        <v>181</v>
+      </c>
+      <c r="S46" t="s">
+        <v>181</v>
+      </c>
+      <c r="T46" t="s">
+        <v>181</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>181</v>
+      </c>
+      <c r="W46" t="s">
+        <v>181</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47" t="s">
+        <v>390</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>181</v>
+      </c>
+      <c r="R47" t="s">
+        <v>181</v>
+      </c>
+      <c r="S47" t="s">
+        <v>181</v>
+      </c>
+      <c r="T47" t="s">
+        <v>181</v>
+      </c>
+      <c r="U47">
+        <v>250</v>
+      </c>
+      <c r="V47" t="s">
+        <v>181</v>
+      </c>
+      <c r="W47" t="s">
+        <v>181</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" t="s">
+        <v>391</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>181</v>
+      </c>
+      <c r="R48" t="s">
+        <v>181</v>
+      </c>
+      <c r="S48" t="s">
+        <v>181</v>
+      </c>
+      <c r="T48" t="s">
+        <v>181</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>181</v>
+      </c>
+      <c r="W48" t="s">
+        <v>181</v>
+      </c>
+      <c r="X48">
+        <v>250</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>395</v>
+      </c>
+      <c r="B49" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="E49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>181</v>
+      </c>
+      <c r="R49" t="s">
+        <v>181</v>
+      </c>
+      <c r="S49" t="s">
+        <v>181</v>
+      </c>
+      <c r="T49" t="s">
+        <v>181</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>181</v>
+      </c>
+      <c r="W49" t="s">
+        <v>181</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA49">
+        <v>250</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>396</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>181</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>181</v>
+      </c>
+      <c r="R50" t="s">
+        <v>181</v>
+      </c>
+      <c r="S50" t="s">
+        <v>181</v>
+      </c>
+      <c r="T50" t="s">
+        <v>181</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>181</v>
+      </c>
+      <c r="W50" t="s">
+        <v>181</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>397</v>
+      </c>
+      <c r="B51" t="s">
+        <v>393</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E51" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>181</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>181</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>181</v>
+      </c>
+      <c r="R51" t="s">
+        <v>181</v>
+      </c>
+      <c r="S51" t="s">
+        <v>181</v>
+      </c>
+      <c r="T51" t="s">
+        <v>181</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>181</v>
+      </c>
+      <c r="W51" t="s">
+        <v>181</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>500</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" t="s">
+        <v>394</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>181</v>
+      </c>
+      <c r="R52" t="s">
+        <v>181</v>
+      </c>
+      <c r="S52" t="s">
+        <v>181</v>
+      </c>
+      <c r="T52" t="s">
+        <v>181</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>181</v>
+      </c>
+      <c r="W52" t="s">
+        <v>181</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>500</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B35" r:id="rId1" tooltip="Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Limited Reliance Industries" display="https://navatar61--tr2sb8.sandbox.lightning.force.com/lightning/r/0013C00000mphj3QAA/view"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12392,7 +14496,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="359">
   <si>
     <t xml:space="preserve"> "     Advisorfirm NSAdmin Record04"</t>
   </si>
@@ -1104,126 +1104,6 @@
   </si>
   <si>
     <t>AR_Up29</t>
-  </si>
-  <si>
-    <t>AR_Up30</t>
-  </si>
-  <si>
-    <t>AR_Up31</t>
-  </si>
-  <si>
-    <t>"Tata Motors ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
-  </si>
-  <si>
-    <t>"Mahindra ~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
-  </si>
-  <si>
-    <t>"Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
-  </si>
-  <si>
-    <t>"Mahindra Automobile Task~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
-  </si>
-  <si>
-    <t>"BHEL Eelectrical Event ~!@#^&amp;*()_+=-[]{}\|;':,.&lt;&gt;/?"</t>
-  </si>
-  <si>
-    <t>AR_Up32</t>
-  </si>
-  <si>
-    <t>AR_Up33</t>
-  </si>
-  <si>
-    <t>AR_Up34</t>
-  </si>
-  <si>
-    <t>AR_Up35</t>
-  </si>
-  <si>
-    <t>AR_Up36</t>
-  </si>
-  <si>
-    <t>"NSUser Record"</t>
-  </si>
-  <si>
-    <t>AR_Up37</t>
-  </si>
-  <si>
-    <t>LPcon</t>
-  </si>
-  <si>
-    <t>AR_Up38</t>
-  </si>
-  <si>
-    <t>AR_Up39</t>
-  </si>
-  <si>
-    <t>AR_Up40</t>
-  </si>
-  <si>
-    <t>AR_Up41</t>
-  </si>
-  <si>
-    <t>AR_Up42</t>
-  </si>
-  <si>
-    <t>AR_Up43</t>
-  </si>
-  <si>
-    <t>"Deal NSUser Company"</t>
-  </si>
-  <si>
-    <t>"Company Type - TSK01" "Company Type - TSK02" "Company Type - TSK03" "Company Type - TSK04" "Company Type - TSK05"</t>
-  </si>
-  <si>
-    <t>"Company Type Event01" "Company Type Event02" "Company Type Event03" "Company Type Event04" "Company Type Event05"</t>
-  </si>
-  <si>
-    <t>"LPfirm NSUser Record05"</t>
-  </si>
-  <si>
-    <t>"POCOcon02 User.rec02"</t>
-  </si>
-  <si>
-    <t>AR_Up44</t>
-  </si>
-  <si>
-    <t>AR_Up45</t>
-  </si>
-  <si>
-    <t>AR_Up46</t>
-  </si>
-  <si>
-    <t>AR_Up47</t>
-  </si>
-  <si>
-    <t>"NSAdmin Bulk Record"</t>
-  </si>
-  <si>
-    <t>"Deal NSAdmin"</t>
-  </si>
-  <si>
-    <t>"Fund NSAdmin Record"</t>
-  </si>
-  <si>
-    <t>"Fundraising NSAdmin Record"</t>
-  </si>
-  <si>
-    <t>"Type - TSK"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Type - Event"</t>
-  </si>
-  <si>
-    <t>AR_Up48</t>
-  </si>
-  <si>
-    <t>AR_Up49</t>
-  </si>
-  <si>
-    <t>AR_Up50</t>
-  </si>
-  <si>
-    <t>AR_Up51</t>
   </si>
 </sst>
 </file>
@@ -1603,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9621,10 +9501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9751,7 +9631,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -9844,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>259</v>
       </c>
@@ -9934,7 +9814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -11200,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>312</v>
       </c>
@@ -11290,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>313</v>
       </c>
@@ -11380,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>324</v>
       </c>
@@ -11470,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>347</v>
       </c>
@@ -11560,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>348</v>
       </c>
@@ -11568,7 +11448,7 @@
         <v>229</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D52" si="2">SUM(E22:AD22)</f>
+        <f t="shared" ref="D22:D30" si="2">SUM(E22:AD22)</f>
         <v>140</v>
       </c>
       <c r="E22" t="s">
@@ -11650,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>349</v>
       </c>
@@ -11740,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>350</v>
       </c>
@@ -11830,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>351</v>
       </c>
@@ -11920,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>353</v>
       </c>
@@ -12010,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>354</v>
       </c>
@@ -12100,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>355</v>
       </c>
@@ -12190,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>356</v>
       </c>
@@ -12280,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>358</v>
       </c>
@@ -12370,1992 +12250,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>359</v>
-      </c>
-      <c r="B31" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="E31" t="s">
-        <v>181</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>181</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>181</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>11</v>
-      </c>
-      <c r="P31">
-        <v>6</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>181</v>
-      </c>
-      <c r="R31" t="s">
-        <v>181</v>
-      </c>
-      <c r="S31" t="s">
-        <v>181</v>
-      </c>
-      <c r="T31" t="s">
-        <v>181</v>
-      </c>
-      <c r="U31">
-        <v>6</v>
-      </c>
-      <c r="V31" t="s">
-        <v>181</v>
-      </c>
-      <c r="W31" t="s">
-        <v>181</v>
-      </c>
-      <c r="X31">
-        <v>6</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA31">
-        <v>3</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>21</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>360</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>181</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>181</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>181</v>
-      </c>
-      <c r="R32" t="s">
-        <v>181</v>
-      </c>
-      <c r="S32" t="s">
-        <v>181</v>
-      </c>
-      <c r="T32" t="s">
-        <v>181</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32" t="s">
-        <v>181</v>
-      </c>
-      <c r="W32" t="s">
-        <v>181</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>20</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>366</v>
-      </c>
-      <c r="B33" t="s">
-        <v>361</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>181</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>181</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>181</v>
-      </c>
-      <c r="R33" t="s">
-        <v>181</v>
-      </c>
-      <c r="S33" t="s">
-        <v>181</v>
-      </c>
-      <c r="T33" t="s">
-        <v>181</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33" t="s">
-        <v>181</v>
-      </c>
-      <c r="W33" t="s">
-        <v>181</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>367</v>
-      </c>
-      <c r="B34" t="s">
-        <v>362</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>181</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>181</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>181</v>
-      </c>
-      <c r="R34" t="s">
-        <v>181</v>
-      </c>
-      <c r="S34" t="s">
-        <v>181</v>
-      </c>
-      <c r="T34" t="s">
-        <v>181</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34" t="s">
-        <v>181</v>
-      </c>
-      <c r="W34" t="s">
-        <v>181</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>368</v>
-      </c>
-      <c r="B35" t="s">
-        <v>363</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>181</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="s">
-        <v>181</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>181</v>
-      </c>
-      <c r="R35" t="s">
-        <v>181</v>
-      </c>
-      <c r="S35" t="s">
-        <v>181</v>
-      </c>
-      <c r="T35" t="s">
-        <v>181</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35" t="s">
-        <v>181</v>
-      </c>
-      <c r="W35" t="s">
-        <v>181</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA35">
-        <v>1</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>369</v>
-      </c>
-      <c r="B36" t="s">
-        <v>364</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>181</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>181</v>
-      </c>
-      <c r="R36" t="s">
-        <v>181</v>
-      </c>
-      <c r="S36" t="s">
-        <v>181</v>
-      </c>
-      <c r="T36" t="s">
-        <v>181</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36" t="s">
-        <v>181</v>
-      </c>
-      <c r="W36" t="s">
-        <v>181</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>1</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>370</v>
-      </c>
-      <c r="B37" t="s">
-        <v>365</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>181</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>181</v>
-      </c>
-      <c r="R37" t="s">
-        <v>181</v>
-      </c>
-      <c r="S37" t="s">
-        <v>181</v>
-      </c>
-      <c r="T37" t="s">
-        <v>181</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37" t="s">
-        <v>181</v>
-      </c>
-      <c r="W37" t="s">
-        <v>181</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>1</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>372</v>
-      </c>
-      <c r="B38" t="s">
-        <v>371</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>330</v>
-      </c>
-      <c r="E38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>181</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>5</v>
-      </c>
-      <c r="K38" t="s">
-        <v>181</v>
-      </c>
-      <c r="L38">
-        <v>5</v>
-      </c>
-      <c r="M38">
-        <v>5</v>
-      </c>
-      <c r="N38">
-        <v>5</v>
-      </c>
-      <c r="O38">
-        <v>15</v>
-      </c>
-      <c r="P38">
-        <v>20</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>181</v>
-      </c>
-      <c r="R38" t="s">
-        <v>181</v>
-      </c>
-      <c r="S38" t="s">
-        <v>181</v>
-      </c>
-      <c r="T38" t="s">
-        <v>181</v>
-      </c>
-      <c r="U38">
-        <v>35</v>
-      </c>
-      <c r="V38" t="s">
-        <v>181</v>
-      </c>
-      <c r="W38" t="s">
-        <v>181</v>
-      </c>
-      <c r="X38">
-        <v>35</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA38">
-        <v>15</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>175</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>374</v>
-      </c>
-      <c r="B39" t="s">
-        <v>373</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>181</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="s">
-        <v>181</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>181</v>
-      </c>
-      <c r="R39" t="s">
-        <v>181</v>
-      </c>
-      <c r="S39" t="s">
-        <v>181</v>
-      </c>
-      <c r="T39" t="s">
-        <v>181</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39" t="s">
-        <v>181</v>
-      </c>
-      <c r="W39" t="s">
-        <v>181</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>375</v>
-      </c>
-      <c r="B40" t="s">
-        <v>380</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s">
-        <v>181</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>181</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>181</v>
-      </c>
-      <c r="R40" t="s">
-        <v>181</v>
-      </c>
-      <c r="S40" t="s">
-        <v>181</v>
-      </c>
-      <c r="T40" t="s">
-        <v>181</v>
-      </c>
-      <c r="U40">
-        <v>5</v>
-      </c>
-      <c r="V40" t="s">
-        <v>181</v>
-      </c>
-      <c r="W40" t="s">
-        <v>181</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>376</v>
-      </c>
-      <c r="B41" t="s">
-        <v>381</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>181</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>181</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>181</v>
-      </c>
-      <c r="R41" t="s">
-        <v>181</v>
-      </c>
-      <c r="S41" t="s">
-        <v>181</v>
-      </c>
-      <c r="T41" t="s">
-        <v>181</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41" t="s">
-        <v>181</v>
-      </c>
-      <c r="W41" t="s">
-        <v>181</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>5</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>377</v>
-      </c>
-      <c r="B42" t="s">
-        <v>382</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>181</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>181</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>181</v>
-      </c>
-      <c r="R42" t="s">
-        <v>181</v>
-      </c>
-      <c r="S42" t="s">
-        <v>181</v>
-      </c>
-      <c r="T42" t="s">
-        <v>181</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42" t="s">
-        <v>181</v>
-      </c>
-      <c r="W42" t="s">
-        <v>181</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>5</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>378</v>
-      </c>
-      <c r="B43" t="s">
-        <v>383</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" t="s">
-        <v>181</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>181</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>181</v>
-      </c>
-      <c r="R43" t="s">
-        <v>181</v>
-      </c>
-      <c r="S43" t="s">
-        <v>181</v>
-      </c>
-      <c r="T43" t="s">
-        <v>181</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43" t="s">
-        <v>181</v>
-      </c>
-      <c r="W43" t="s">
-        <v>181</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA43">
-        <v>2</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>7</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>379</v>
-      </c>
-      <c r="B44" t="s">
-        <v>384</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" t="s">
-        <v>181</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>181</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>181</v>
-      </c>
-      <c r="R44" t="s">
-        <v>181</v>
-      </c>
-      <c r="S44" t="s">
-        <v>181</v>
-      </c>
-      <c r="T44" t="s">
-        <v>181</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44" t="s">
-        <v>181</v>
-      </c>
-      <c r="W44" t="s">
-        <v>181</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>385</v>
-      </c>
-      <c r="B45" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>181</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>181</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>181</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>181</v>
-      </c>
-      <c r="R45" t="s">
-        <v>181</v>
-      </c>
-      <c r="S45" t="s">
-        <v>181</v>
-      </c>
-      <c r="T45" t="s">
-        <v>181</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45" t="s">
-        <v>181</v>
-      </c>
-      <c r="W45" t="s">
-        <v>181</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>386</v>
-      </c>
-      <c r="B46" t="s">
-        <v>389</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
-        <v>181</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>181</v>
-      </c>
-      <c r="R46" t="s">
-        <v>181</v>
-      </c>
-      <c r="S46" t="s">
-        <v>181</v>
-      </c>
-      <c r="T46" t="s">
-        <v>181</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46" t="s">
-        <v>181</v>
-      </c>
-      <c r="W46" t="s">
-        <v>181</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>387</v>
-      </c>
-      <c r="B47" t="s">
-        <v>390</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="E47" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" t="s">
-        <v>181</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" t="s">
-        <v>181</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>181</v>
-      </c>
-      <c r="R47" t="s">
-        <v>181</v>
-      </c>
-      <c r="S47" t="s">
-        <v>181</v>
-      </c>
-      <c r="T47" t="s">
-        <v>181</v>
-      </c>
-      <c r="U47">
-        <v>250</v>
-      </c>
-      <c r="V47" t="s">
-        <v>181</v>
-      </c>
-      <c r="W47" t="s">
-        <v>181</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>388</v>
-      </c>
-      <c r="B48" t="s">
-        <v>391</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="E48" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" t="s">
-        <v>181</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>181</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>181</v>
-      </c>
-      <c r="R48" t="s">
-        <v>181</v>
-      </c>
-      <c r="S48" t="s">
-        <v>181</v>
-      </c>
-      <c r="T48" t="s">
-        <v>181</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48" t="s">
-        <v>181</v>
-      </c>
-      <c r="W48" t="s">
-        <v>181</v>
-      </c>
-      <c r="X48">
-        <v>250</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>395</v>
-      </c>
-      <c r="B49" t="s">
-        <v>392</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="E49" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>181</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>181</v>
-      </c>
-      <c r="R49" t="s">
-        <v>181</v>
-      </c>
-      <c r="S49" t="s">
-        <v>181</v>
-      </c>
-      <c r="T49" t="s">
-        <v>181</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49" t="s">
-        <v>181</v>
-      </c>
-      <c r="W49" t="s">
-        <v>181</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA49">
-        <v>250</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>396</v>
-      </c>
-      <c r="B50" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" t="s">
-        <v>181</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
-        <v>181</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>181</v>
-      </c>
-      <c r="R50" t="s">
-        <v>181</v>
-      </c>
-      <c r="S50" t="s">
-        <v>181</v>
-      </c>
-      <c r="T50" t="s">
-        <v>181</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50" t="s">
-        <v>181</v>
-      </c>
-      <c r="W50" t="s">
-        <v>181</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>397</v>
-      </c>
-      <c r="B51" t="s">
-        <v>393</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="E51" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>181</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" t="s">
-        <v>181</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>181</v>
-      </c>
-      <c r="R51" t="s">
-        <v>181</v>
-      </c>
-      <c r="S51" t="s">
-        <v>181</v>
-      </c>
-      <c r="T51" t="s">
-        <v>181</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51" t="s">
-        <v>181</v>
-      </c>
-      <c r="W51" t="s">
-        <v>181</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>500</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>398</v>
-      </c>
-      <c r="B52" t="s">
-        <v>394</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="E52" t="s">
-        <v>181</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>181</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>181</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>181</v>
-      </c>
-      <c r="R52" t="s">
-        <v>181</v>
-      </c>
-      <c r="S52" t="s">
-        <v>181</v>
-      </c>
-      <c r="T52" t="s">
-        <v>181</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52" t="s">
-        <v>181</v>
-      </c>
-      <c r="W52" t="s">
-        <v>181</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>500</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" tooltip="Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Limited Reliance Industries" display="https://navatar61--tr2sb8.sandbox.lightning.force.com/lightning/r/0013C00000mphj3QAA/view"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14496,7 +12392,7 @@
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin Garg\git\PE4.7Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B06462-E92A-4AE7-879F-D2E8BB1B71D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,28 @@
     <sheet name="Others" sheetId="3" r:id="rId3"/>
     <sheet name="UpdatedRecordType" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="402">
   <si>
     <t xml:space="preserve"> "     Advisorfirm NSAdmin Record04"</t>
   </si>
@@ -1010,54 +1022,6 @@
     <t>Advisor&lt;break&gt;Company&lt;break&gt;Institution&lt;break&gt;Intermediary&lt;break&gt;Lender&lt;break&gt;Limited Partner&lt;break&gt;Portfolio Company</t>
   </si>
   <si>
-    <t>Advisor_Updated</t>
-  </si>
-  <si>
-    <t>Company_Updated</t>
-  </si>
-  <si>
-    <t>Institution_Updated</t>
-  </si>
-  <si>
-    <t>Intermediary_Updated</t>
-  </si>
-  <si>
-    <t>Lender_Updated</t>
-  </si>
-  <si>
-    <t>Limited Partner_Updated</t>
-  </si>
-  <si>
-    <t>Portfolio Company_Updated</t>
-  </si>
-  <si>
-    <t>Banker_Updated</t>
-  </si>
-  <si>
-    <t>Broker_Updated</t>
-  </si>
-  <si>
-    <t>BuySide Deal_Updated</t>
-  </si>
-  <si>
-    <t>Capital Raise_Updated</t>
-  </si>
-  <si>
-    <t>SellSide Deal_Updated</t>
-  </si>
-  <si>
-    <t>Mutual Fund_Updated</t>
-  </si>
-  <si>
-    <t>Trust Fund_Updated</t>
-  </si>
-  <si>
-    <t>FRGRT_Updated</t>
-  </si>
-  <si>
-    <t>MSGRT_Updated</t>
-  </si>
-  <si>
     <t>ARURT_1</t>
   </si>
   <si>
@@ -1104,12 +1068,189 @@
   </si>
   <si>
     <t>AR_Up29</t>
+  </si>
+  <si>
+    <t>AR_Up30</t>
+  </si>
+  <si>
+    <t>AR_Up31</t>
+  </si>
+  <si>
+    <t>"Tata Motors ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>"Mahindra ~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>"Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>"Mahindra Automobile Task~!@#^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>"BHEL Eelectrical Event ~!@#^&amp;*()_+=-[]{}\|;':,.&lt;&gt;/?"</t>
+  </si>
+  <si>
+    <t>AR_Up32</t>
+  </si>
+  <si>
+    <t>AR_Up33</t>
+  </si>
+  <si>
+    <t>AR_Up34</t>
+  </si>
+  <si>
+    <t>AR_Up35</t>
+  </si>
+  <si>
+    <t>AR_Up36</t>
+  </si>
+  <si>
+    <t>"NSUser Record"</t>
+  </si>
+  <si>
+    <t>AR_Up37</t>
+  </si>
+  <si>
+    <t>LPcon</t>
+  </si>
+  <si>
+    <t>AR_Up38</t>
+  </si>
+  <si>
+    <t>AR_Up39</t>
+  </si>
+  <si>
+    <t>AR_Up40</t>
+  </si>
+  <si>
+    <t>AR_Up41</t>
+  </si>
+  <si>
+    <t>AR_Up42</t>
+  </si>
+  <si>
+    <t>AR_Up43</t>
+  </si>
+  <si>
+    <t>"Deal NSUser Company"</t>
+  </si>
+  <si>
+    <t>"Company Type - TSK01" "Company Type - TSK02" "Company Type - TSK03" "Company Type - TSK04" "Company Type - TSK05"</t>
+  </si>
+  <si>
+    <t>"Company Type Event01" "Company Type Event02" "Company Type Event03" "Company Type Event04" "Company Type Event05"</t>
+  </si>
+  <si>
+    <t>"LPfirm NSUser Record05"</t>
+  </si>
+  <si>
+    <t>"POCOcon02 User.rec02"</t>
+  </si>
+  <si>
+    <t>AR_Up44</t>
+  </si>
+  <si>
+    <t>AR_Up45</t>
+  </si>
+  <si>
+    <t>AR_Up46</t>
+  </si>
+  <si>
+    <t>AR_Up47</t>
+  </si>
+  <si>
+    <t>"NSAdmin Bulk Record"</t>
+  </si>
+  <si>
+    <t>"Deal NSAdmin"</t>
+  </si>
+  <si>
+    <t>"Fund NSAdmin Record"</t>
+  </si>
+  <si>
+    <t>"Fundraising NSAdmin Record"</t>
+  </si>
+  <si>
+    <t>"Type - TSK"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Type - Event"</t>
+  </si>
+  <si>
+    <t>AR_Up48</t>
+  </si>
+  <si>
+    <t>AR_Up49</t>
+  </si>
+  <si>
+    <t>AR_Up50</t>
+  </si>
+  <si>
+    <t>AR_Up51</t>
+  </si>
+  <si>
+    <t>AR_Up52</t>
+  </si>
+  <si>
+    <t>0033C00000bSI3XQAW</t>
+  </si>
+  <si>
+    <t>AR_Up53</t>
+  </si>
+  <si>
+    <t>Advisor Updated</t>
+  </si>
+  <si>
+    <t>Company Updated</t>
+  </si>
+  <si>
+    <t>Institution Updated</t>
+  </si>
+  <si>
+    <t>Intermediary Updated</t>
+  </si>
+  <si>
+    <t>Lender Updated</t>
+  </si>
+  <si>
+    <t>Limited Partner Updated</t>
+  </si>
+  <si>
+    <t>Portfolio Company Updated</t>
+  </si>
+  <si>
+    <t>Banker Updated</t>
+  </si>
+  <si>
+    <t>Broker Updated</t>
+  </si>
+  <si>
+    <t>BuySide Deal Updated</t>
+  </si>
+  <si>
+    <t>Capital Raise Updated</t>
+  </si>
+  <si>
+    <t>SellSide Deal Updated</t>
+  </si>
+  <si>
+    <t>Mutual Fund Updated</t>
+  </si>
+  <si>
+    <t>Trust Fund Updated</t>
+  </si>
+  <si>
+    <t>FRGRT Updated</t>
+  </si>
+  <si>
+    <t>MSGRT Updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1203,7 +1344,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1480,11 +1621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:U6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9492,7 +9633,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C55" r:id="rId1"/>
+    <hyperlink ref="C55" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9500,11 +9641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9907,7 +10048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -9997,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -10090,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -10180,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>269</v>
       </c>
@@ -10270,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -10360,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>304</v>
       </c>
@@ -10369,7 +10510,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>181</v>
@@ -10384,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -10402,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -10432,7 +10573,7 @@
         <v>181</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -10450,7 +10591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -10540,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>306</v>
       </c>
@@ -10630,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>307</v>
       </c>
@@ -10720,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>308</v>
       </c>
@@ -10783,10 +10924,10 @@
         <v>181</v>
       </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>1</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
       </c>
       <c r="X14" t="s">
         <v>181</v>
@@ -10810,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>309</v>
       </c>
@@ -10900,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>310</v>
       </c>
@@ -10990,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>311</v>
       </c>
@@ -11269,7 +11410,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>181</v>
@@ -11311,10 +11452,10 @@
         <v>181</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11352,7 +11493,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B21" t="s">
         <v>229</v>
@@ -11442,13 +11583,13 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B22" t="s">
         <v>229</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D30" si="2">SUM(E22:AD22)</f>
+        <f t="shared" ref="D22:D52" si="2">SUM(E22:AD22)</f>
         <v>140</v>
       </c>
       <c r="E22" t="s">
@@ -11532,7 +11673,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B23" t="s">
         <v>229</v>
@@ -11622,7 +11763,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B24" t="s">
         <v>229</v>
@@ -11712,10 +11853,10 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B25" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
@@ -11802,7 +11943,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B26">
         <v>56789012</v>
@@ -11892,7 +12033,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B27">
         <v>56789012</v>
@@ -11982,7 +12123,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
         <v>235</v>
@@ -12072,7 +12213,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s">
         <v>199</v>
@@ -12162,10 +12303,10 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B30" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
@@ -12250,13 +12391,2175 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>181</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>181</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>11</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>181</v>
+      </c>
+      <c r="R31" t="s">
+        <v>181</v>
+      </c>
+      <c r="S31" t="s">
+        <v>181</v>
+      </c>
+      <c r="T31" t="s">
+        <v>181</v>
+      </c>
+      <c r="U31">
+        <v>6</v>
+      </c>
+      <c r="V31" t="s">
+        <v>181</v>
+      </c>
+      <c r="W31" t="s">
+        <v>181</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>21</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>181</v>
+      </c>
+      <c r="R32" t="s">
+        <v>181</v>
+      </c>
+      <c r="S32" t="s">
+        <v>181</v>
+      </c>
+      <c r="T32" t="s">
+        <v>181</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>181</v>
+      </c>
+      <c r="W32" t="s">
+        <v>181</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>20</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>181</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>181</v>
+      </c>
+      <c r="R33" t="s">
+        <v>181</v>
+      </c>
+      <c r="S33" t="s">
+        <v>181</v>
+      </c>
+      <c r="T33" t="s">
+        <v>181</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>181</v>
+      </c>
+      <c r="W33" t="s">
+        <v>181</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>351</v>
+      </c>
+      <c r="B34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>181</v>
+      </c>
+      <c r="R34" t="s">
+        <v>181</v>
+      </c>
+      <c r="S34" t="s">
+        <v>181</v>
+      </c>
+      <c r="T34" t="s">
+        <v>181</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>181</v>
+      </c>
+      <c r="W34" t="s">
+        <v>181</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>181</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>181</v>
+      </c>
+      <c r="R35" t="s">
+        <v>181</v>
+      </c>
+      <c r="S35" t="s">
+        <v>181</v>
+      </c>
+      <c r="T35" t="s">
+        <v>181</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>181</v>
+      </c>
+      <c r="W35" t="s">
+        <v>181</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B36" t="s">
+        <v>348</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>181</v>
+      </c>
+      <c r="R36" t="s">
+        <v>181</v>
+      </c>
+      <c r="S36" t="s">
+        <v>181</v>
+      </c>
+      <c r="T36" t="s">
+        <v>181</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>181</v>
+      </c>
+      <c r="W36" t="s">
+        <v>181</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>354</v>
+      </c>
+      <c r="B37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>181</v>
+      </c>
+      <c r="R37" t="s">
+        <v>181</v>
+      </c>
+      <c r="S37" t="s">
+        <v>181</v>
+      </c>
+      <c r="T37" t="s">
+        <v>181</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37" t="s">
+        <v>181</v>
+      </c>
+      <c r="W37" t="s">
+        <v>181</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>356</v>
+      </c>
+      <c r="B38" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="E38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>15</v>
+      </c>
+      <c r="P38">
+        <v>20</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>181</v>
+      </c>
+      <c r="R38" t="s">
+        <v>181</v>
+      </c>
+      <c r="S38" t="s">
+        <v>181</v>
+      </c>
+      <c r="T38" t="s">
+        <v>181</v>
+      </c>
+      <c r="U38">
+        <v>35</v>
+      </c>
+      <c r="V38" t="s">
+        <v>181</v>
+      </c>
+      <c r="W38" t="s">
+        <v>181</v>
+      </c>
+      <c r="X38">
+        <v>35</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA38">
+        <v>15</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>175</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>358</v>
+      </c>
+      <c r="B39" t="s">
+        <v>357</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>181</v>
+      </c>
+      <c r="R39" t="s">
+        <v>181</v>
+      </c>
+      <c r="S39" t="s">
+        <v>181</v>
+      </c>
+      <c r="T39" t="s">
+        <v>181</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>181</v>
+      </c>
+      <c r="W39" t="s">
+        <v>181</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>359</v>
+      </c>
+      <c r="B40" t="s">
+        <v>364</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>181</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>181</v>
+      </c>
+      <c r="R40" t="s">
+        <v>181</v>
+      </c>
+      <c r="S40" t="s">
+        <v>181</v>
+      </c>
+      <c r="T40" t="s">
+        <v>181</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40" t="s">
+        <v>181</v>
+      </c>
+      <c r="W40" t="s">
+        <v>181</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>360</v>
+      </c>
+      <c r="B41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>181</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>181</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>181</v>
+      </c>
+      <c r="R41" t="s">
+        <v>181</v>
+      </c>
+      <c r="S41" t="s">
+        <v>181</v>
+      </c>
+      <c r="T41" t="s">
+        <v>181</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>181</v>
+      </c>
+      <c r="W41" t="s">
+        <v>181</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>5</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>181</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>181</v>
+      </c>
+      <c r="R42" t="s">
+        <v>181</v>
+      </c>
+      <c r="S42" t="s">
+        <v>181</v>
+      </c>
+      <c r="T42" t="s">
+        <v>181</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>181</v>
+      </c>
+      <c r="W42" t="s">
+        <v>181</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>5</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>181</v>
+      </c>
+      <c r="R43" t="s">
+        <v>181</v>
+      </c>
+      <c r="S43" t="s">
+        <v>181</v>
+      </c>
+      <c r="T43" t="s">
+        <v>181</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>181</v>
+      </c>
+      <c r="W43" t="s">
+        <v>181</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>7</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>363</v>
+      </c>
+      <c r="B44" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>181</v>
+      </c>
+      <c r="R44" t="s">
+        <v>181</v>
+      </c>
+      <c r="S44" t="s">
+        <v>181</v>
+      </c>
+      <c r="T44" t="s">
+        <v>181</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>181</v>
+      </c>
+      <c r="W44" t="s">
+        <v>181</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>369</v>
+      </c>
+      <c r="B45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>181</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>181</v>
+      </c>
+      <c r="R45" t="s">
+        <v>181</v>
+      </c>
+      <c r="S45" t="s">
+        <v>181</v>
+      </c>
+      <c r="T45" t="s">
+        <v>181</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45" t="s">
+        <v>181</v>
+      </c>
+      <c r="W45" t="s">
+        <v>181</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>370</v>
+      </c>
+      <c r="B46" t="s">
+        <v>373</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>181</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>181</v>
+      </c>
+      <c r="R46" t="s">
+        <v>181</v>
+      </c>
+      <c r="S46" t="s">
+        <v>181</v>
+      </c>
+      <c r="T46" t="s">
+        <v>181</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>181</v>
+      </c>
+      <c r="W46" t="s">
+        <v>181</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" t="s">
+        <v>374</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>181</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>181</v>
+      </c>
+      <c r="R47" t="s">
+        <v>181</v>
+      </c>
+      <c r="S47" t="s">
+        <v>181</v>
+      </c>
+      <c r="T47" t="s">
+        <v>181</v>
+      </c>
+      <c r="U47">
+        <v>250</v>
+      </c>
+      <c r="V47" t="s">
+        <v>181</v>
+      </c>
+      <c r="W47" t="s">
+        <v>181</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>372</v>
+      </c>
+      <c r="B48" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>181</v>
+      </c>
+      <c r="R48" t="s">
+        <v>181</v>
+      </c>
+      <c r="S48" t="s">
+        <v>181</v>
+      </c>
+      <c r="T48" t="s">
+        <v>181</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>181</v>
+      </c>
+      <c r="W48" t="s">
+        <v>181</v>
+      </c>
+      <c r="X48">
+        <v>250</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>379</v>
+      </c>
+      <c r="B49" t="s">
+        <v>376</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="E49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>181</v>
+      </c>
+      <c r="R49" t="s">
+        <v>181</v>
+      </c>
+      <c r="S49" t="s">
+        <v>181</v>
+      </c>
+      <c r="T49" t="s">
+        <v>181</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>181</v>
+      </c>
+      <c r="W49" t="s">
+        <v>181</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA49">
+        <v>250</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>181</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>181</v>
+      </c>
+      <c r="R50" t="s">
+        <v>181</v>
+      </c>
+      <c r="S50" t="s">
+        <v>181</v>
+      </c>
+      <c r="T50" t="s">
+        <v>181</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>181</v>
+      </c>
+      <c r="W50" t="s">
+        <v>181</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>381</v>
+      </c>
+      <c r="B51" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E51" t="s">
+        <v>181</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>181</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>181</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>181</v>
+      </c>
+      <c r="R51" t="s">
+        <v>181</v>
+      </c>
+      <c r="S51" t="s">
+        <v>181</v>
+      </c>
+      <c r="T51" t="s">
+        <v>181</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>181</v>
+      </c>
+      <c r="W51" t="s">
+        <v>181</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>500</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="E52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>181</v>
+      </c>
+      <c r="R52" t="s">
+        <v>181</v>
+      </c>
+      <c r="S52" t="s">
+        <v>181</v>
+      </c>
+      <c r="T52" t="s">
+        <v>181</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52" t="s">
+        <v>181</v>
+      </c>
+      <c r="W52" t="s">
+        <v>181</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>500</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>383</v>
+      </c>
+      <c r="B53" t="s">
+        <v>384</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" t="s">
+        <v>181</v>
+      </c>
+      <c r="J53" t="s">
+        <v>181</v>
+      </c>
+      <c r="K53" t="s">
+        <v>181</v>
+      </c>
+      <c r="L53" t="s">
+        <v>181</v>
+      </c>
+      <c r="M53" t="s">
+        <v>181</v>
+      </c>
+      <c r="N53" t="s">
+        <v>181</v>
+      </c>
+      <c r="O53" t="s">
+        <v>181</v>
+      </c>
+      <c r="P53" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
+        <v>181</v>
+      </c>
+      <c r="S53" t="s">
+        <v>181</v>
+      </c>
+      <c r="T53" t="s">
+        <v>181</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53" t="s">
+        <v>181</v>
+      </c>
+      <c r="W53" t="s">
+        <v>181</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>385</v>
+      </c>
+      <c r="B54" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>181</v>
+      </c>
+      <c r="G54" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" t="s">
+        <v>181</v>
+      </c>
+      <c r="I54" t="s">
+        <v>181</v>
+      </c>
+      <c r="J54" t="s">
+        <v>181</v>
+      </c>
+      <c r="K54" t="s">
+        <v>181</v>
+      </c>
+      <c r="L54" t="s">
+        <v>181</v>
+      </c>
+      <c r="M54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N54" t="s">
+        <v>181</v>
+      </c>
+      <c r="O54" t="s">
+        <v>181</v>
+      </c>
+      <c r="P54" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
+        <v>181</v>
+      </c>
+      <c r="S54" t="s">
+        <v>181</v>
+      </c>
+      <c r="T54" t="s">
+        <v>181</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>181</v>
+      </c>
+      <c r="W54" t="s">
+        <v>181</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B35" r:id="rId1" tooltip="Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Limited Reliance Industries" display="https://navatar61--tr2sb8.sandbox.lightning.force.com/lightning/r/0013C00000mphj3QAA/view" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12388,11 +14691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12446,67 +14749,67 @@
         <v>255</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>288</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>289</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>245</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>244</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>243</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>242</v>
@@ -12523,7 +14826,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
         <v>229</v>
@@ -12613,7 +14916,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
         <v>315</v>
@@ -12703,7 +15006,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
         <v>316</v>
@@ -12793,7 +15096,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
         <v>317</v>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin Garg\git\PE4.7Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B06462-E92A-4AE7-879F-D2E8BB1B71D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Others" sheetId="3" r:id="rId3"/>
     <sheet name="UpdatedRecordType" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="402">
   <si>
-    <t xml:space="preserve"> "     Advisorfirm NSAdmin Record04"</t>
-  </si>
-  <si>
     <t>ACR_130</t>
   </si>
   <si>
@@ -1245,12 +1241,15 @@
   </si>
   <si>
     <t>MSGRT Updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Advisorfirm NSAdmin Record04"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1344,7 +1343,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1621,11 +1620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,80 +1653,80 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" si="0">SUM(E2:U2)</f>
         <v>445</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1757,7 +1756,7 @@
         <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P2">
         <v>60</v>
@@ -1780,17 +1779,17 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
         <v>445</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1820,7 +1819,7 @@
         <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P3">
         <v>60</v>
@@ -1843,17 +1842,17 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>445</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1906,17 +1905,17 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1969,17 +1968,17 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6">
         <v>15</v>
@@ -2032,17 +2031,17 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2095,17 +2094,17 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2158,7 +2157,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9">
         <v>3434343434</v>
@@ -2168,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2221,7 +2220,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10">
         <v>4545</v>
@@ -2231,7 +2230,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2284,17 +2283,17 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2347,17 +2346,17 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2410,17 +2409,17 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2473,17 +2472,17 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -2536,17 +2535,17 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2599,17 +2598,17 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -2662,17 +2661,17 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2725,17 +2724,17 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -2788,17 +2787,17 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2828,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2851,7 +2850,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20">
         <v>56789012</v>
@@ -2861,7 +2860,7 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20">
         <v>15</v>
@@ -2891,7 +2890,7 @@
         <v>15</v>
       </c>
       <c r="O20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P20">
         <v>15</v>
@@ -2914,7 +2913,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21">
         <v>56789</v>
@@ -2924,7 +2923,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -2954,7 +2953,7 @@
         <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P21">
         <v>15</v>
@@ -2977,17 +2976,17 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -3017,7 +3016,7 @@
         <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3040,17 +3039,17 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -3080,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3103,17 +3102,17 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -3143,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3166,17 +3165,17 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -3206,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3229,17 +3228,17 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -3269,7 +3268,7 @@
         <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3292,7 +3291,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27">
         <v>3242342003</v>
@@ -3302,7 +3301,7 @@
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3332,7 +3331,7 @@
         <v>15</v>
       </c>
       <c r="O27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P27">
         <v>15</v>
@@ -3355,17 +3354,17 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -3395,7 +3394,7 @@
         <v>30</v>
       </c>
       <c r="O28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P28">
         <v>30</v>
@@ -3418,7 +3417,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29">
         <v>32423</v>
@@ -3428,7 +3427,7 @@
         <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3458,7 +3457,7 @@
         <v>15</v>
       </c>
       <c r="O29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P29">
         <v>15</v>
@@ -3481,17 +3480,17 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30">
         <v>15</v>
@@ -3521,7 +3520,7 @@
         <v>50</v>
       </c>
       <c r="O30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P30">
         <v>95</v>
@@ -3544,17 +3543,17 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -3584,7 +3583,7 @@
         <v>50</v>
       </c>
       <c r="O31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P31">
         <v>95</v>
@@ -3607,17 +3606,17 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -3647,7 +3646,7 @@
         <v>50</v>
       </c>
       <c r="O32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P32">
         <v>95</v>
@@ -3670,17 +3669,17 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33">
         <v>15</v>
@@ -3710,7 +3709,7 @@
         <v>50</v>
       </c>
       <c r="O33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P33">
         <v>95</v>
@@ -3733,18 +3732,18 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D65" si="1">SUM(E34:U34)</f>
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3797,7 +3796,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35">
@@ -3808,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3861,18 +3860,18 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3925,18 +3924,18 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3989,17 +3988,17 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -4052,17 +4051,17 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -4112,17 +4111,17 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -4172,17 +4171,17 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -4232,17 +4231,17 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -4292,17 +4291,17 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -4352,17 +4351,17 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -4412,17 +4411,17 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -4472,17 +4471,17 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -4532,17 +4531,17 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -4592,17 +4591,17 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -4652,17 +4651,17 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
         <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -4712,17 +4711,17 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -4772,17 +4771,17 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4832,17 +4831,17 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4892,17 +4891,17 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4952,17 +4951,17 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5012,17 +5011,17 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5072,7 +5071,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56">
         <v>4543543300</v>
@@ -5082,7 +5081,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5132,7 +5131,7 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57">
         <v>45435</v>
@@ -5142,7 +5141,7 @@
         <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5192,17 +5191,17 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5252,7 +5251,7 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59">
         <v>12345678776</v>
@@ -5262,7 +5261,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5312,7 +5311,7 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60">
         <v>12345</v>
@@ -5322,7 +5321,7 @@
         <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5372,17 +5371,17 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5432,7 +5431,7 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62">
         <v>567890121</v>
@@ -5442,7 +5441,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5492,17 +5491,17 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5552,7 +5551,7 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64">
         <v>5656565656</v>
@@ -5562,7 +5561,7 @@
         <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5612,7 +5611,7 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65">
         <v>565656</v>
@@ -5622,7 +5621,7 @@
         <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5672,17 +5671,17 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66">
         <f t="shared" ref="D66:D97" si="2">SUM(E66:U66)</f>
         <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -5732,17 +5731,17 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D67">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5792,17 +5791,17 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5852,17 +5851,17 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D69">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5912,17 +5911,17 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D70">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5972,17 +5971,17 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D71">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6032,17 +6031,17 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D72">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6092,7 +6091,7 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73">
         <v>5678901201</v>
@@ -6102,7 +6101,7 @@
         <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F73">
         <v>15</v>
@@ -6152,17 +6151,17 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D74">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F74">
         <v>15</v>
@@ -6212,7 +6211,7 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75">
         <v>34567</v>
@@ -6222,7 +6221,7 @@
         <v>85</v>
       </c>
       <c r="E75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6272,17 +6271,17 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D76">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -6332,17 +6331,17 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6392,17 +6391,17 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6452,17 +6451,17 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6512,17 +6511,17 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D80">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -6572,17 +6571,17 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6632,17 +6631,17 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D82">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6692,17 +6691,17 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6752,17 +6751,17 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6812,7 +6811,7 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>3242342003</v>
@@ -6822,7 +6821,7 @@
         <v>60</v>
       </c>
       <c r="E85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6872,17 +6871,17 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="E86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F86">
         <v>15</v>
@@ -6932,7 +6931,7 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <v>32423</v>
@@ -6942,7 +6941,7 @@
         <v>75</v>
       </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6992,17 +6991,17 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D88">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -7052,17 +7051,17 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -7112,17 +7111,17 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -7172,17 +7171,17 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -7232,17 +7231,17 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D92">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -7292,17 +7291,17 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D93">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7352,18 +7351,18 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7413,17 +7412,17 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D95">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -7473,17 +7472,17 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D96">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -7533,17 +7532,17 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D97">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -7593,7 +7592,7 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C98">
         <v>5678901201</v>
@@ -7603,7 +7602,7 @@
         <v>65</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F98">
         <v>15</v>
@@ -7653,17 +7652,17 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D99">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F99">
         <v>15</v>
@@ -7713,17 +7712,17 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D100">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -7773,17 +7772,17 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D101">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7833,17 +7832,17 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D102">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7893,17 +7892,17 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D103">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7953,17 +7952,17 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D104">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -8013,17 +8012,17 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D105">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E105" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -8073,17 +8072,17 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D106">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -8133,17 +8132,17 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D107">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -8193,17 +8192,17 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D108">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -8253,17 +8252,17 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D109">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8313,17 +8312,17 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D110">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8373,7 +8372,7 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C111">
         <v>2343254667</v>
@@ -8383,7 +8382,7 @@
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -8433,17 +8432,17 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D112">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -8493,7 +8492,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>7686564</v>
@@ -8503,7 +8502,7 @@
         <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -8553,17 +8552,17 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D114">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -8613,17 +8612,17 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D115">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8673,17 +8672,17 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D116">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -8733,17 +8732,17 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -8793,17 +8792,17 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D118">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -8853,17 +8852,17 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D119">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -8913,17 +8912,17 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D120">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E120" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -8973,17 +8972,17 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -9033,17 +9032,17 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D122">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -9093,17 +9092,17 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -9153,17 +9152,17 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D124">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="E124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -9213,17 +9212,17 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -9273,17 +9272,17 @@
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -9333,17 +9332,17 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -9393,17 +9392,17 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D128">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E128" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -9453,17 +9452,17 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D129">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -9513,17 +9512,17 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <f t="shared" ref="D130:D131" si="4">SUM(E130:U130)</f>
         <v>35</v>
       </c>
       <c r="E130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -9573,17 +9572,17 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="D131">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E131" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -9633,7 +9632,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C55" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C55" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9641,10 +9640,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -9682,112 +9681,112 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2">
         <f>SUM(F2:AD2)</f>
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -9796,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -9805,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -9823,34 +9822,34 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -9867,17 +9866,17 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D4" si="0">SUM(F3:AD3)</f>
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -9886,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -9895,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -9913,34 +9912,34 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -9957,20 +9956,20 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -9979,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -9988,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -10006,34 +10005,34 @@
         <v>1</v>
       </c>
       <c r="Q4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -10050,17 +10049,17 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <f>SUM(F5:AD5)</f>
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10069,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -10078,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -10096,34 +10095,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -10140,20 +10139,20 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
         <v>266</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>267</v>
       </c>
       <c r="D6">
         <f>SUM(F6:AD6)</f>
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10162,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -10171,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -10189,34 +10188,34 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -10233,17 +10232,17 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D20" si="1">SUM(F7:AD7)</f>
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10252,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -10261,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -10279,34 +10278,34 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -10323,17 +10322,17 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10342,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -10351,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -10369,34 +10368,34 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -10413,17 +10412,17 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -10459,7 +10458,7 @@
         <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R9">
         <v>27</v>
@@ -10471,7 +10470,7 @@
         <v>19</v>
       </c>
       <c r="U9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V9">
         <v>32</v>
@@ -10480,7 +10479,7 @@
         <v>28</v>
       </c>
       <c r="X9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -10489,7 +10488,7 @@
         <v>10</v>
       </c>
       <c r="AA9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -10503,17 +10502,17 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10549,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -10561,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -10570,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -10579,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -10593,17 +10592,17 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10639,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -10651,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -10660,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -10669,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -10683,17 +10682,17 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -10729,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -10741,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -10750,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -10759,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -10773,17 +10772,17 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -10819,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -10831,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -10840,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -10849,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="AA13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -10863,17 +10862,17 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -10909,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -10921,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -10930,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -10939,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -10953,17 +10952,17 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -10999,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -11011,7 +11010,7 @@
         <v>9</v>
       </c>
       <c r="U15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -11020,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -11029,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -11043,17 +11042,17 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -11089,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16">
         <v>9</v>
@@ -11101,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -11110,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -11119,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -11133,17 +11132,17 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -11179,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -11191,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -11200,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -11209,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -11223,17 +11222,17 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -11269,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -11281,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V18">
         <v>11</v>
@@ -11290,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -11299,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -11313,17 +11312,17 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -11359,7 +11358,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -11371,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -11380,7 +11379,7 @@
         <v>14</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -11389,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -11403,17 +11402,17 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" t="s">
         <v>324</v>
-      </c>
-      <c r="B20" t="s">
-        <v>325</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -11449,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R20">
         <v>1</v>
@@ -11461,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -11470,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="X20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -11479,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="AA20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -11493,17 +11492,17 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D21">
         <f>SUM(E21:AD21)</f>
         <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21">
         <v>15</v>
@@ -11539,7 +11538,7 @@
         <v>15</v>
       </c>
       <c r="Q21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R21">
         <v>9</v>
@@ -11551,7 +11550,7 @@
         <v>17</v>
       </c>
       <c r="U21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -11560,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -11569,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -11583,17 +11582,17 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:D52" si="2">SUM(E22:AD22)</f>
         <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F22">
         <v>15</v>
@@ -11602,7 +11601,7 @@
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -11611,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -11623,40 +11622,40 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>30</v>
       </c>
       <c r="R22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U22">
         <v>30</v>
       </c>
       <c r="V22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -11673,17 +11672,17 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -11692,7 +11691,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -11701,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -11719,34 +11718,34 @@
         <v>15</v>
       </c>
       <c r="Q23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U23">
         <v>30</v>
       </c>
       <c r="V23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -11763,17 +11762,17 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -11782,7 +11781,7 @@
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -11791,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -11803,40 +11802,40 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U24">
         <v>30</v>
       </c>
       <c r="V24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -11853,17 +11852,17 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" t="s">
         <v>335</v>
-      </c>
-      <c r="B25" t="s">
-        <v>336</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -11872,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -11881,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -11893,40 +11892,40 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -11943,7 +11942,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B26">
         <v>56789012</v>
@@ -11953,7 +11952,7 @@
         <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F26">
         <v>15</v>
@@ -11962,7 +11961,7 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -11971,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L26">
         <v>15</v>
@@ -11989,34 +11988,34 @@
         <v>15</v>
       </c>
       <c r="Q26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U26">
         <v>15</v>
       </c>
       <c r="V26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X26">
         <v>15</v>
       </c>
       <c r="Y26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -12033,7 +12032,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B27">
         <v>56789012</v>
@@ -12043,7 +12042,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -12052,7 +12051,7 @@
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -12061,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L27">
         <v>15</v>
@@ -12079,34 +12078,34 @@
         <v>0</v>
       </c>
       <c r="Q27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -12123,17 +12122,17 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
         <v>445</v>
       </c>
       <c r="E28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -12142,7 +12141,7 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I28">
         <v>10</v>
@@ -12151,7 +12150,7 @@
         <v>10</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -12169,34 +12168,34 @@
         <v>30</v>
       </c>
       <c r="Q28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U28">
         <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X28">
         <v>60</v>
       </c>
       <c r="Y28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA28">
         <v>20</v>
@@ -12213,17 +12212,17 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -12232,7 +12231,7 @@
         <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -12241,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -12259,34 +12258,34 @@
         <v>0</v>
       </c>
       <c r="Q29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -12303,17 +12302,17 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -12322,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I30">
         <v>10</v>
@@ -12331,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L30">
         <v>15</v>
@@ -12349,34 +12348,34 @@
         <v>15</v>
       </c>
       <c r="Q30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U30">
         <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -12393,17 +12392,17 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -12412,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -12421,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -12439,34 +12438,34 @@
         <v>6</v>
       </c>
       <c r="Q31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U31">
         <v>6</v>
       </c>
       <c r="V31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X31">
         <v>6</v>
       </c>
       <c r="Y31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA31">
         <v>3</v>
@@ -12483,17 +12482,17 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -12502,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -12511,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -12529,34 +12528,34 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X32">
         <v>0</v>
       </c>
       <c r="Y32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -12573,17 +12572,17 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -12592,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -12601,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -12619,34 +12618,34 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -12663,17 +12662,17 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -12682,7 +12681,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -12691,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -12709,34 +12708,34 @@
         <v>1</v>
       </c>
       <c r="Q34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -12753,17 +12752,17 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -12772,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -12781,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -12799,34 +12798,34 @@
         <v>0</v>
       </c>
       <c r="Q35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U35">
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
       <c r="Y35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA35">
         <v>1</v>
@@ -12843,17 +12842,17 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -12862,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -12871,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -12889,34 +12888,34 @@
         <v>0</v>
       </c>
       <c r="Q36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X36">
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -12933,17 +12932,17 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -12952,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -12961,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -12979,34 +12978,34 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -13023,17 +13022,17 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -13042,7 +13041,7 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -13051,7 +13050,7 @@
         <v>5</v>
       </c>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L38">
         <v>5</v>
@@ -13069,34 +13068,34 @@
         <v>20</v>
       </c>
       <c r="Q38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U38">
         <v>35</v>
       </c>
       <c r="V38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X38">
         <v>35</v>
       </c>
       <c r="Y38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA38">
         <v>15</v>
@@ -13113,17 +13112,17 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -13132,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -13141,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -13159,34 +13158,34 @@
         <v>5</v>
       </c>
       <c r="Q39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -13203,17 +13202,17 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -13222,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -13231,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -13249,34 +13248,34 @@
         <v>0</v>
       </c>
       <c r="Q40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U40">
         <v>5</v>
       </c>
       <c r="V40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X40">
         <v>0</v>
       </c>
       <c r="Y40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -13293,17 +13292,17 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -13312,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -13321,7 +13320,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -13339,34 +13338,34 @@
         <v>0</v>
       </c>
       <c r="Q41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X41">
         <v>0</v>
       </c>
       <c r="Y41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -13383,17 +13382,17 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -13402,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -13411,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -13429,34 +13428,34 @@
         <v>0</v>
       </c>
       <c r="Q42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X42">
         <v>0</v>
       </c>
       <c r="Y42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -13473,17 +13472,17 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -13492,7 +13491,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -13501,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -13519,34 +13518,34 @@
         <v>0</v>
       </c>
       <c r="Q43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U43">
         <v>1</v>
       </c>
       <c r="V43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X43">
         <v>0</v>
       </c>
       <c r="Y43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -13563,17 +13562,17 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -13582,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -13591,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -13609,34 +13608,34 @@
         <v>1</v>
       </c>
       <c r="Q44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X44">
         <v>0</v>
       </c>
       <c r="Y44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -13653,17 +13652,17 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -13672,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -13681,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -13699,34 +13698,34 @@
         <v>0</v>
       </c>
       <c r="Q45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X45">
         <v>0</v>
       </c>
       <c r="Y45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -13743,17 +13742,17 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -13762,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -13771,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -13789,34 +13788,34 @@
         <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X46">
         <v>0</v>
       </c>
       <c r="Y46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -13833,17 +13832,17 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="E47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -13852,7 +13851,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -13861,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -13879,34 +13878,34 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U47">
         <v>250</v>
       </c>
       <c r="V47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X47">
         <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -13923,17 +13922,17 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -13942,7 +13941,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -13951,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -13969,34 +13968,34 @@
         <v>0</v>
       </c>
       <c r="Q48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X48">
         <v>250</v>
       </c>
       <c r="Y48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -14013,17 +14012,17 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -14032,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -14041,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -14059,34 +14058,34 @@
         <v>0</v>
       </c>
       <c r="Q49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
       <c r="Y49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA49">
         <v>250</v>
@@ -14103,17 +14102,17 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -14122,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -14131,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -14149,34 +14148,34 @@
         <v>0</v>
       </c>
       <c r="Q50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X50">
         <v>0</v>
       </c>
       <c r="Y50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -14193,17 +14192,17 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -14212,7 +14211,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -14221,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -14239,34 +14238,34 @@
         <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X51">
         <v>0</v>
       </c>
       <c r="Y51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -14283,17 +14282,17 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -14302,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -14311,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -14329,34 +14328,34 @@
         <v>0</v>
       </c>
       <c r="Q52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X52">
         <v>0</v>
       </c>
       <c r="Y52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA52">
         <v>0</v>
@@ -14373,11 +14372,11 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>382</v>
+      </c>
+      <c r="B53" t="s">
         <v>383</v>
       </c>
-      <c r="B53" t="s">
-        <v>384</v>
-      </c>
       <c r="D53">
         <v>0</v>
       </c>
@@ -14385,67 +14384,67 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X53">
         <v>0</v>
       </c>
       <c r="Y53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -14462,10 +14461,10 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -14474,67 +14473,67 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X54">
         <v>0</v>
       </c>
       <c r="Y54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -14551,7 +14550,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" tooltip="Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Limited Reliance Industries" display="https://navatar61--tr2sb8.sandbox.lightning.force.com/lightning/r/0013C00000mphj3QAA/view" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B35" r:id="rId1" tooltip="Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Limited Reliance Industries" display="https://navatar61--tr2sb8.sandbox.lightning.force.com/lightning/r/0013C00000mphj3QAA/view"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -14559,7 +14558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14580,109 +14579,109 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -14691,7 +14690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -14734,109 +14733,109 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D2">
         <f>SUM(E2:AD2)</f>
         <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -14872,7 +14871,7 @@
         <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R2">
         <v>9</v>
@@ -14884,7 +14883,7 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -14893,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -14902,7 +14901,7 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -14916,17 +14915,17 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="0">SUM(F3:AD3)</f>
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -14962,7 +14961,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -14974,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -14983,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -14992,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -15006,17 +15005,17 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -15052,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -15064,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -15073,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -15082,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -15096,17 +15095,17 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -15142,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -15154,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -15163,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -15172,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB5">
         <v>0</v>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="Others" sheetId="3" r:id="rId3"/>
     <sheet name="UpdatedRecordType" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SearchData!$C$1:$X$131</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="413">
   <si>
     <t>ACR_130</t>
   </si>
@@ -640,9 +643,6 @@
     <t>ACR_22</t>
   </si>
   <si>
-    <t>"56789012 2123123"</t>
-  </si>
-  <si>
     <t>ACR_21</t>
   </si>
   <si>
@@ -730,9 +730,6 @@
     <t>ACR_5</t>
   </si>
   <si>
-    <t>"Advisorfirm NSAdmin Record04"</t>
-  </si>
-  <si>
     <t>ACR_4</t>
   </si>
   <si>
@@ -754,12 +751,6 @@
     <t>ACR_1</t>
   </si>
   <si>
-    <t>Referenced Contacts</t>
-  </si>
-  <si>
-    <t>Referenced Accounts</t>
-  </si>
-  <si>
     <t>Interactions</t>
   </si>
   <si>
@@ -979,9 +970,6 @@
     <t>AR_Up18</t>
   </si>
   <si>
-    <t>"Advisorcon05 Adm.rec05"</t>
-  </si>
-  <si>
     <t>"Actavis Generics"</t>
   </si>
   <si>
@@ -1253,6 +1241,45 @@
   </si>
   <si>
     <t>Files</t>
+  </si>
+  <si>
+    <t>Advisorfirm NSAdmin Record04</t>
+  </si>
+  <si>
+    <t>Tagged Accounts</t>
+  </si>
+  <si>
+    <t>Tagged Contacts</t>
+  </si>
+  <si>
+    <t>56789012 2123123</t>
+  </si>
+  <si>
+    <t>Intermediary  Type - TSK03</t>
+  </si>
+  <si>
+    <t>Intermediary  Type - Event03</t>
+  </si>
+  <si>
+    <t>Intermediary  Type - Event03 Updated</t>
+  </si>
+  <si>
+    <t>Intermediary  Type - TSK03 Updated</t>
+  </si>
+  <si>
+    <t>CompanyFund NSAdmin Record07 - Updated</t>
+  </si>
+  <si>
+    <t>CompanyFund NSAdmin Record07</t>
+  </si>
+  <si>
+    <t>Fundraising with Institution NSAdmin Record03</t>
+  </si>
+  <si>
+    <t>Deal NSAdmin Company Record05</t>
+  </si>
+  <si>
+    <t>Advisorcon05 Adm.rec05 - Updated</t>
   </si>
 </sst>
 </file>
@@ -1632,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:U131"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,82 +1690,82 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" si="0">SUM(E2:X2)</f>
@@ -1807,10 +1834,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -1879,10 +1906,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -1951,10 +1978,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -2023,10 +2050,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -2095,10 +2122,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -2167,10 +2194,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -2239,7 +2266,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9">
         <v>3434343434</v>
@@ -2311,10 +2338,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10">
-        <v>4545</v>
+        <v>45454</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -2383,10 +2410,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -2455,10 +2482,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -2527,10 +2554,10 @@
     </row>
     <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
@@ -2599,10 +2626,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -2671,10 +2698,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -2743,10 +2770,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -2815,10 +2842,10 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -2887,10 +2914,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -2959,10 +2986,10 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -3031,7 +3058,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20">
         <v>56789012</v>
@@ -3103,7 +3130,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21">
         <v>56789</v>
@@ -3175,10 +3202,10 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>403</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -4049,35 +4076,35 @@
         <f t="shared" ref="D34:D65" si="1">SUM(E34:X34)</f>
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" t="s">
+        <v>180</v>
+      </c>
+      <c r="K34" t="s">
+        <v>180</v>
+      </c>
+      <c r="L34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N34" t="s">
+        <v>180</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -4122,35 +4149,35 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" t="s">
+        <v>180</v>
+      </c>
+      <c r="L35" t="s">
+        <v>180</v>
+      </c>
+      <c r="M35" t="s">
+        <v>180</v>
+      </c>
+      <c r="N35" t="s">
+        <v>180</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -4195,35 +4222,35 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E36" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" t="s">
+        <v>180</v>
+      </c>
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" t="s">
+        <v>180</v>
+      </c>
+      <c r="K36" t="s">
+        <v>180</v>
+      </c>
+      <c r="L36" t="s">
+        <v>180</v>
+      </c>
+      <c r="M36" t="s">
+        <v>180</v>
+      </c>
+      <c r="N36" t="s">
+        <v>180</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -4268,35 +4295,35 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" t="s">
+        <v>180</v>
+      </c>
+      <c r="K37" t="s">
+        <v>180</v>
+      </c>
+      <c r="L37" t="s">
+        <v>180</v>
+      </c>
+      <c r="M37" t="s">
+        <v>180</v>
+      </c>
+      <c r="N37" t="s">
+        <v>180</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -8208,34 +8235,37 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E94" t="s">
-        <v>180</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>180</v>
+      </c>
+      <c r="G94" t="s">
+        <v>180</v>
+      </c>
+      <c r="H94" t="s">
+        <v>180</v>
+      </c>
+      <c r="I94" t="s">
+        <v>180</v>
+      </c>
+      <c r="J94" t="s">
+        <v>180</v>
+      </c>
+      <c r="K94" t="s">
+        <v>180</v>
+      </c>
+      <c r="L94" t="s">
+        <v>180</v>
+      </c>
+      <c r="M94" t="s">
+        <v>180</v>
+      </c>
+      <c r="N94" t="s">
+        <v>180</v>
+      </c>
+      <c r="O94">
         <v>0</v>
       </c>
       <c r="P94">
@@ -10755,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D131">
         <f t="shared" si="4"/>
@@ -10820,6 +10850,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:X131"/>
   <hyperlinks>
     <hyperlink ref="C55" r:id="rId1"/>
   </hyperlinks>
@@ -10832,8 +10863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG54"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AD54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10871,114 +10902,114 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="AA1" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D20" si="0">SUM(F2:AG2)</f>
@@ -11074,10 +11105,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>412</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
@@ -11173,13 +11207,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -11275,10 +11309,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>409</v>
+      </c>
+      <c r="C5" t="s">
+        <v>408</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -11374,13 +11411,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -11476,10 +11513,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>407</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -11575,10 +11615,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>406</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -11674,10 +11717,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -11773,10 +11816,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -11872,10 +11915,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -11971,10 +12014,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -12070,10 +12113,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -12169,10 +12212,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -12268,10 +12311,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -12367,10 +12410,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -12466,10 +12509,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -12565,10 +12608,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -12664,10 +12707,10 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -12763,10 +12806,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -12862,10 +12905,10 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D21">
         <f>SUM(E21:AG21)</f>
@@ -12961,10 +13004,10 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:D52" si="1">SUM(E22:AG22)</f>
@@ -13060,10 +13103,10 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
@@ -13159,10 +13202,10 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
@@ -13258,10 +13301,10 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -13357,7 +13400,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B26">
         <v>56789012</v>
@@ -13456,7 +13499,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B27">
         <v>56789012</v>
@@ -13555,10 +13598,10 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
@@ -13654,7 +13697,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B29" t="s">
         <v>198</v>
@@ -13753,10 +13796,10 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -13852,10 +13895,10 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -13951,7 +13994,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -14050,10 +14093,10 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -14149,10 +14192,10 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B34" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -14248,10 +14291,10 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -14347,10 +14390,10 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
@@ -14446,10 +14489,10 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B37" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
@@ -14545,10 +14588,10 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
@@ -14644,10 +14687,10 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -14743,10 +14786,10 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" t="s">
         <v>358</v>
-      </c>
-      <c r="B40" t="s">
-        <v>363</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -14842,10 +14885,10 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41" t="s">
         <v>359</v>
-      </c>
-      <c r="B41" t="s">
-        <v>364</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
@@ -14941,10 +14984,10 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>355</v>
+      </c>
+      <c r="B42" t="s">
         <v>360</v>
-      </c>
-      <c r="B42" t="s">
-        <v>365</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -15040,10 +15083,10 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>356</v>
+      </c>
+      <c r="B43" t="s">
         <v>361</v>
-      </c>
-      <c r="B43" t="s">
-        <v>366</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
@@ -15139,10 +15182,10 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>357</v>
+      </c>
+      <c r="B44" t="s">
         <v>362</v>
-      </c>
-      <c r="B44" t="s">
-        <v>367</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
@@ -15238,10 +15281,10 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
@@ -15337,10 +15380,10 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
@@ -15436,10 +15479,10 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
@@ -15535,10 +15578,10 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
@@ -15634,10 +15677,10 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
@@ -15733,7 +15776,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s">
         <v>165</v>
@@ -15832,10 +15875,10 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B51" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
@@ -15931,10 +15974,10 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B52" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
@@ -16030,10 +16073,10 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -16128,10 +16171,10 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -16255,109 +16298,109 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -16369,8 +16412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AD5"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16410,111 +16453,111 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D2">
         <f>SUM(E2:AG2)</f>
@@ -16610,10 +16653,10 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="0">SUM(F3:AG3)</f>
@@ -16709,10 +16752,10 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -16808,10 +16851,10 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin Garg\git\PE4.7Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418F09D7-4315-4672-8606-39CA9056CBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B7A190-1644-494A-95D5-B6A45241DE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="416">
   <si>
     <t>ACR_130</t>
   </si>
@@ -776,9 +776,6 @@
     <t>AR_Up2</t>
   </si>
   <si>
-    <t>Advisorfirm NSAdmin Record04 - Updated</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -791,15 +788,9 @@
     <t>AR_Up4</t>
   </si>
   <si>
-    <t>Deal NSAdmin Company Record05 - Updated</t>
-  </si>
-  <si>
     <t>AR_Up5</t>
   </si>
   <si>
-    <t>Fundraising with Institution NSAdmin Record03 - Updated</t>
-  </si>
-  <si>
     <t>AR_Up6</t>
   </si>
   <si>
@@ -1166,45 +1157,12 @@
     <t>Tagged Contacts</t>
   </si>
   <si>
-    <t>Intermediary  Type - Event03 Updated</t>
-  </si>
-  <si>
-    <t>Intermediary  Type - TSK03 Updated</t>
-  </si>
-  <si>
-    <t>CompanyFund NSAdmin Record07 - Updated</t>
-  </si>
-  <si>
-    <t>Advisorcon05 Adm.rec05 - Updated</t>
-  </si>
-  <si>
     <t>"Tata Motors"</t>
   </si>
   <si>
     <t>"lending or debt investments (e.g., mezzanine or distressed debt funds)."</t>
   </si>
   <si>
-    <t xml:space="preserve">    Advisorfirm NSAdmin Record04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Advisorcon05 Adm.rec05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Deal NSAdmin Company Record05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    CompanyFund NSAdmin Record07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Fundraising with Institution NSAdmin Record03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Intermediary  Type - TSK03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Intermediary  Type - Event03</t>
-  </si>
-  <si>
     <t>Advisor_Updated</t>
   </si>
   <si>
@@ -1290,6 +1248,48 @@
   </si>
   <si>
     <t>ACR_131</t>
+  </si>
+  <si>
+    <t>"    Advisorfirm NSAdmin Record04"</t>
+  </si>
+  <si>
+    <t>"    Advisorcon05 Adm.rec05"</t>
+  </si>
+  <si>
+    <t>"    Deal NSAdmin Company Record05"</t>
+  </si>
+  <si>
+    <t>"    CompanyFund NSAdmin Record07"</t>
+  </si>
+  <si>
+    <t>"    Fundraising with Institution NSAdmin Record03"</t>
+  </si>
+  <si>
+    <t>"    Intermediary  Type - TSK03"</t>
+  </si>
+  <si>
+    <t>"    Intermediary  Type - Event03"</t>
+  </si>
+  <si>
+    <t>"Advisorfirm NSAdmin Record04 - Updated"</t>
+  </si>
+  <si>
+    <t>"Advisorcon05 Adm.rec05 - Updated"</t>
+  </si>
+  <si>
+    <t>"Deal NSAdmin Company Record05 - Updated"</t>
+  </si>
+  <si>
+    <t>"CompanyFund NSAdmin Record07 - Updated"</t>
+  </si>
+  <si>
+    <t>"Fundraising with Institution NSAdmin Record03 - Updated"</t>
+  </si>
+  <si>
+    <t>"Intermediary  Type - TSK03 Updated"</t>
+  </si>
+  <si>
+    <t>"Intermediary  Type - Event03 Updated"</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1676,7 @@
   <dimension ref="A1:X132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D122" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A132" sqref="A132"/>
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,22 +1758,22 @@
         <v>226</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>225</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -2000,7 +1997,7 @@
         <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -3224,7 +3221,7 @@
         <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -3800,7 +3797,7 @@
         <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -3872,7 +3869,7 @@
         <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -3944,7 +3941,7 @@
         <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -4016,7 +4013,7 @@
         <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -4668,7 +4665,7 @@
         <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -5820,7 +5817,7 @@
         <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
@@ -6036,7 +6033,7 @@
         <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
@@ -6252,7 +6249,7 @@
         <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
@@ -6540,7 +6537,7 @@
         <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
@@ -7044,7 +7041,7 @@
         <v>105</v>
       </c>
       <c r="C75" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D75">
         <f t="shared" si="3"/>
@@ -11077,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D132" si="5">SUM(E131:X131)</f>
@@ -11146,10 +11143,10 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C132" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D132">
         <f t="shared" si="5"/>
@@ -11231,8 +11228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11273,7 +11270,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>241</v>
@@ -11291,7 +11288,7 @@
         <v>237</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>236</v>
@@ -11300,7 +11297,7 @@
         <v>235</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>234</v>
@@ -11321,63 +11318,63 @@
         <v>229</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>228</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>227</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>226</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>225</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>409</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D20" si="0">SUM(F2:AG2)</f>
@@ -11476,14 +11473,14 @@
         <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>173</v>
@@ -11570,18 +11567,18 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>411</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -11676,13 +11673,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -11778,13 +11775,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>413</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -11880,13 +11877,13 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -11982,13 +11979,13 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -12084,7 +12081,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
         <v>223</v>
@@ -12183,10 +12180,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -12281,10 +12278,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -12380,10 +12377,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -12479,10 +12476,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -12578,10 +12575,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -12677,10 +12674,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -12776,10 +12773,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -12875,10 +12872,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -12974,10 +12971,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -13073,10 +13070,10 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -13172,10 +13169,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -13271,7 +13268,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
         <v>216</v>
@@ -13370,7 +13367,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
         <v>216</v>
@@ -13469,7 +13466,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B23" t="s">
         <v>216</v>
@@ -13568,7 +13565,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B24" t="s">
         <v>216</v>
@@ -13667,14 +13664,14 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>173</v>
@@ -13706,8 +13703,8 @@
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25" t="s">
-        <v>173</v>
+      <c r="O25">
+        <v>1</v>
       </c>
       <c r="P25" t="s">
         <v>173</v>
@@ -13733,8 +13730,8 @@
       <c r="W25" t="s">
         <v>173</v>
       </c>
-      <c r="X25" t="s">
-        <v>173</v>
+      <c r="X25">
+        <v>1</v>
       </c>
       <c r="Y25" t="s">
         <v>173</v>
@@ -13761,12 +13758,12 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B26">
         <v>56789012</v>
@@ -13865,7 +13862,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B27">
         <v>56789012</v>
@@ -13964,7 +13961,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B28" t="s">
         <v>221</v>
@@ -14063,7 +14060,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s">
         <v>187</v>
@@ -14162,10 +14159,10 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -14261,7 +14258,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B31" t="s">
         <v>214</v>
@@ -14360,7 +14357,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -14459,10 +14456,10 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -14558,10 +14555,10 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -14657,10 +14654,10 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -14756,10 +14753,10 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
@@ -14855,10 +14852,10 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
@@ -14954,10 +14951,10 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
@@ -15053,10 +15050,10 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -15152,10 +15149,10 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -15251,10 +15248,10 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
@@ -15350,10 +15347,10 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -15449,10 +15446,10 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
@@ -15548,10 +15545,10 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
@@ -15647,7 +15644,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s">
         <v>223</v>
@@ -15746,10 +15743,10 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46" t="s">
         <v>352</v>
-      </c>
-      <c r="B46" t="s">
-        <v>355</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
@@ -15845,10 +15842,10 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>350</v>
+      </c>
+      <c r="B47" t="s">
         <v>353</v>
-      </c>
-      <c r="B47" t="s">
-        <v>356</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
@@ -15944,10 +15941,10 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48" t="s">
         <v>354</v>
-      </c>
-      <c r="B48" t="s">
-        <v>357</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
@@ -16043,10 +16040,10 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
@@ -16142,7 +16139,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B50" t="s">
         <v>158</v>
@@ -16241,10 +16238,10 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
@@ -16340,10 +16337,10 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
@@ -16439,10 +16436,10 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -16537,10 +16534,10 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -16667,106 +16664,106 @@
         <v>242</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -16822,7 +16819,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>241</v>
@@ -16834,93 +16831,93 @@
         <v>239</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>229</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>228</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>227</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>226</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>225</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
         <v>216</v>
@@ -17019,10 +17016,10 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="0">SUM(F3:AG3)</f>
@@ -17118,10 +17115,10 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -17217,10 +17214,10 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi Kumar\git\PE4.7Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin Garg\git\PE4.7Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B2F061-B19C-4754-8F92-FFC5BCBB57AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SearchData!$C$1:$Y$132</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1360,7 +1361,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1465,7 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1480,10 +1481,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1760,39 +1762,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y132"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="15" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="22" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="55.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="15" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +1878,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" si="0">SUM(E2:Y2)</f>
-        <v>452</v>
+        <v>828</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1906,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="N2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O2">
         <v>30</v>
@@ -1915,10 +1917,10 @@
         <v>26</v>
       </c>
       <c r="Q2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="R2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="S2">
         <v>20</v>
@@ -1930,19 +1932,19 @@
         <v>10</v>
       </c>
       <c r="V2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="X2" s="7">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +1953,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>828</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1981,7 +1983,7 @@
         <v>10</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O3">
         <v>30</v>
@@ -1990,10 +1992,10 @@
         <v>26</v>
       </c>
       <c r="Q3">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="R3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="S3">
         <v>20</v>
@@ -2005,19 +2007,19 @@
         <v>10</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="X3" s="7">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2026,7 +2028,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>828</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -2056,7 +2058,7 @@
         <v>10</v>
       </c>
       <c r="N4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O4">
         <v>30</v>
@@ -2065,10 +2067,10 @@
         <v>26</v>
       </c>
       <c r="Q4">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="R4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="S4">
         <v>20</v>
@@ -2080,19 +2082,19 @@
         <v>10</v>
       </c>
       <c r="V4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>140</v>
+        <v>160</v>
+      </c>
+      <c r="X4" s="7">
+        <v>160</v>
       </c>
       <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -2176,7 +2178,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2215,7 +2217,7 @@
         <v>26</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2251,7 +2253,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -2281,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -2290,10 +2292,10 @@
         <v>26</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S7">
         <v>3</v>
@@ -2311,13 +2313,13 @@
         <v>0</v>
       </c>
       <c r="X7" s="6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2326,7 +2328,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -2356,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O8">
         <v>20</v>
@@ -2368,7 +2370,7 @@
         <v>11</v>
       </c>
       <c r="R8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S8">
         <v>16</v>
@@ -2386,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2617,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2692,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2776,7 +2778,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
@@ -2806,7 +2808,7 @@
         <v>15</v>
       </c>
       <c r="N14">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O14">
         <v>50</v>
@@ -2842,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -2926,7 +2928,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
@@ -2956,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="N16">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="O16">
         <v>35</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -3067,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3076,7 +3078,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
@@ -3106,7 +3108,7 @@
         <v>15</v>
       </c>
       <c r="N18">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="O18">
         <v>35</v>
@@ -3142,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3367,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -3451,7 +3453,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -3508,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -3517,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -3526,7 +3528,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -3565,7 +3567,7 @@
         <v>26</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <v>2</v>
@@ -3592,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -3601,7 +3603,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
@@ -3640,7 +3642,7 @@
         <v>26</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25">
         <v>2</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -3676,7 +3678,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -3715,7 +3717,7 @@
         <v>26</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -3742,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -3892,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -3967,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -3976,7 +3978,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -4006,7 +4008,7 @@
         <v>15</v>
       </c>
       <c r="N30">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O30">
         <v>50</v>
@@ -4015,10 +4017,10 @@
         <v>26</v>
       </c>
       <c r="Q30">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="R30">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -4042,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -4051,7 +4053,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -4081,7 +4083,7 @@
         <v>15</v>
       </c>
       <c r="N31">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O31">
         <v>50</v>
@@ -4090,10 +4092,10 @@
         <v>26</v>
       </c>
       <c r="Q31">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="R31">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4117,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -4126,7 +4128,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
@@ -4156,7 +4158,7 @@
         <v>15</v>
       </c>
       <c r="N32">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O32">
         <v>50</v>
@@ -4165,10 +4167,10 @@
         <v>26</v>
       </c>
       <c r="Q32">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="R32">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -4201,7 +4203,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -4231,7 +4233,7 @@
         <v>15</v>
       </c>
       <c r="N33">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O33">
         <v>50</v>
@@ -4240,10 +4242,10 @@
         <v>26</v>
       </c>
       <c r="Q33">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="R33">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4267,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>83</v>
       </c>
@@ -4343,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -4419,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
@@ -4495,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -4730,7 +4732,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
@@ -4760,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O40">
         <v>3</v>
@@ -4793,10 +4795,10 @@
         <v>0</v>
       </c>
       <c r="Y40" s="6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -4805,7 +4807,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
         <v>26</v>
@@ -4835,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O41">
         <v>30</v>
@@ -4859,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -4868,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="Y41" s="6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -4946,7 +4948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -5021,7 +5023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -5171,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -5405,7 +5407,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="E49" t="s">
         <v>26</v>
@@ -5444,10 +5446,10 @@
         <v>26</v>
       </c>
       <c r="Q49">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="R49">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -5471,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -5480,7 +5482,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
         <v>26</v>
@@ -5510,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -5546,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -5621,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -5696,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -5846,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -5996,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -6146,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>127</v>
       </c>
@@ -6221,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>128</v>
       </c>
@@ -6296,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -6446,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -6521,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -6596,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -6671,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -6746,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -6971,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -6980,7 +6982,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E70" t="s">
         <v>26</v>
@@ -7010,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O70">
         <v>30</v>
@@ -7046,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>145</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -7196,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -7271,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>151</v>
       </c>
@@ -7346,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -7421,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>154</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>155</v>
       </c>
@@ -7571,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -7580,38 +7582,38 @@
       </c>
       <c r="D78">
         <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
         <v>45</v>
       </c>
-      <c r="E78" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>30</v>
-      </c>
       <c r="O78">
         <v>15</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -7655,7 +7657,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E79" t="s">
         <v>26</v>
@@ -7694,7 +7696,7 @@
         <v>26</v>
       </c>
       <c r="Q79">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -7721,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -7796,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -7871,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -7880,7 +7882,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
         <v>26</v>
@@ -7919,7 +7921,7 @@
         <v>26</v>
       </c>
       <c r="Q82">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -7946,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>169</v>
       </c>
@@ -8096,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>171</v>
       </c>
@@ -8171,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -8246,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -8696,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -8771,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -8847,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -8922,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -8931,7 +8933,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E96" t="s">
         <v>26</v>
@@ -8970,7 +8972,7 @@
         <v>26</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R96">
         <v>2</v>
@@ -8997,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -9006,7 +9008,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
@@ -9045,7 +9047,7 @@
         <v>26</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9072,7 +9074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -9081,7 +9083,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
         <v>26</v>
@@ -9120,7 +9122,7 @@
         <v>26</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9147,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -9372,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -9522,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>205</v>
       </c>
@@ -9597,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -9672,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>209</v>
       </c>
@@ -9681,7 +9683,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E106" t="s">
         <v>26</v>
@@ -9740,14 +9742,14 @@
       <c r="W106">
         <v>0</v>
       </c>
-      <c r="X106" s="6">
-        <v>4</v>
+      <c r="X106" s="8">
+        <v>3</v>
       </c>
       <c r="Y106" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -9822,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -9897,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>217</v>
       </c>
@@ -10047,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -10122,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>221</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -10272,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -10347,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>225</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>227</v>
       </c>
@@ -10431,7 +10433,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
         <v>26</v>
@@ -10476,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="S116">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T116">
         <v>0</v>
@@ -10497,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>229</v>
       </c>
@@ -10572,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>231</v>
       </c>
@@ -10647,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>235</v>
       </c>
@@ -10797,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>237</v>
       </c>
@@ -10872,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>239</v>
       </c>
@@ -10947,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>240</v>
       </c>
@@ -10956,7 +10958,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E123" t="s">
         <v>26</v>
@@ -11001,16 +11003,16 @@
         <v>0</v>
       </c>
       <c r="S123">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U123">
-        <v>0</v>
-      </c>
-      <c r="V123">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V123" s="8">
+        <v>11</v>
       </c>
       <c r="W123" s="6">
         <v>20</v>
@@ -11022,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>241</v>
       </c>
@@ -11097,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>243</v>
       </c>
@@ -11172,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>245</v>
       </c>
@@ -11181,7 +11183,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E126" t="s">
         <v>26</v>
@@ -11220,7 +11222,7 @@
         <v>26</v>
       </c>
       <c r="Q126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R126">
         <v>0</v>
@@ -11247,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>247</v>
       </c>
@@ -11322,7 +11324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>248</v>
       </c>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -11472,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>250</v>
       </c>
@@ -11547,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>252</v>
       </c>
@@ -11622,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>254</v>
       </c>
@@ -11698,10 +11700,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:Y132"/>
+  <autoFilter ref="C1:Y132" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C55" r:id="rId1"/>
+    <hyperlink ref="C55" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -11709,48 +11711,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="27" width="5.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="7.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="27" width="5.44140625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11854,7 +11856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -11959,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -12064,7 +12066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -12169,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -12274,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>275</v>
       </c>
@@ -12379,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -12484,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -12589,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -12598,7 +12600,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>792</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -12682,16 +12684,16 @@
         <v>12</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AG9">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AH9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -12793,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -12895,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -12997,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -13099,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>289</v>
       </c>
@@ -13201,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>291</v>
       </c>
@@ -13303,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -13405,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>295</v>
       </c>
@@ -13507,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>297</v>
       </c>
@@ -13609,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>299</v>
       </c>
@@ -13711,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>301</v>
       </c>
@@ -13813,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>303</v>
       </c>
@@ -13915,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>304</v>
       </c>
@@ -14017,7 +14019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>305</v>
       </c>
@@ -14119,7 +14121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>306</v>
       </c>
@@ -14221,7 +14223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>307</v>
       </c>
@@ -14323,7 +14325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>308</v>
       </c>
@@ -14425,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>309</v>
       </c>
@@ -14527,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>310</v>
       </c>
@@ -14629,7 +14631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>311</v>
       </c>
@@ -14731,7 +14733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>312</v>
       </c>
@@ -14833,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>313</v>
       </c>
@@ -14935,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>314</v>
       </c>
@@ -15037,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>315</v>
       </c>
@@ -15139,7 +15141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>317</v>
       </c>
@@ -15241,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>319</v>
       </c>
@@ -15343,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>321</v>
       </c>
@@ -15445,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>323</v>
       </c>
@@ -15547,7 +15549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>325</v>
       </c>
@@ -15649,7 +15651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>327</v>
       </c>
@@ -15751,7 +15753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>329</v>
       </c>
@@ -15853,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>331</v>
       </c>
@@ -15955,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -16057,7 +16059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -16159,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>335</v>
       </c>
@@ -16261,7 +16263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>337</v>
       </c>
@@ -16363,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>338</v>
       </c>
@@ -16465,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -16567,7 +16569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>342</v>
       </c>
@@ -16669,7 +16671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>344</v>
       </c>
@@ -16771,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>346</v>
       </c>
@@ -16873,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>347</v>
       </c>
@@ -16975,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>348</v>
       </c>
@@ -17077,7 +17079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>349</v>
       </c>
@@ -17179,7 +17181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>351</v>
       </c>
@@ -17281,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>352</v>
       </c>
@@ -17386,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>355</v>
       </c>
@@ -17491,7 +17493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>358</v>
       </c>
@@ -17596,7 +17598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>361</v>
       </c>
@@ -17698,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>417</v>
       </c>
@@ -17803,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>418</v>
       </c>
@@ -17910,7 +17912,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" tooltip="Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Limited Reliance Industries" display="https://navatar61--tr2sb8.sandbox.lightning.force.com/lightning/r/0013C00000mphj3QAA/view"/>
+    <hyperlink ref="B35" r:id="rId1" tooltip="Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Limited Reliance Industries" display="https://navatar61--tr2sb8.sandbox.lightning.force.com/lightning/r/0013C00000mphj3QAA/view" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -17918,26 +17920,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="149.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="66.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="149.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="119" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="149.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="149.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="51.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17963,7 +17965,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>370</v>
       </c>
@@ -17978,7 +17980,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>374</v>
       </c>
@@ -17987,7 +17989,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>376</v>
       </c>
@@ -18007,7 +18009,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>381</v>
       </c>
@@ -18016,7 +18018,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>383</v>
       </c>
@@ -18025,7 +18027,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>385</v>
       </c>
@@ -18036,7 +18038,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>387</v>
       </c>
@@ -18053,50 +18055,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.88671875" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="31" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18200,7 +18202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>388</v>
       </c>
@@ -18302,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>389</v>
       </c>
@@ -18404,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>390</v>
       </c>
@@ -18506,7 +18508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>391</v>
       </c>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin Garg\git\PE4.7Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E0710-3221-477A-8576-D8CE143241AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5426BC-6D60-417F-B076-254EB4544DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1369,9 +1369,6 @@
     <t>ARCR_1</t>
   </si>
   <si>
-    <t>AccountsTab</t>
-  </si>
-  <si>
     <t>ARCR_2</t>
   </si>
   <si>
@@ -3037,9 +3034,6 @@
     <t>ARCR_335</t>
   </si>
   <si>
-    <t>FundTab</t>
-  </si>
-  <si>
     <t>CompanyFund NSAdmin Record01</t>
   </si>
   <si>
@@ -3127,9 +3121,6 @@
     <t>ARCR_355</t>
   </si>
   <si>
-    <t>FundraisingTab</t>
-  </si>
-  <si>
     <t>Fundraising with Institution NSAdmin Record01</t>
   </si>
   <si>
@@ -3223,9 +3214,6 @@
     <t>ARCR_377</t>
   </si>
   <si>
-    <t>ThemeTab</t>
-  </si>
-  <si>
     <t>Theme NSAdmin Record01</t>
   </si>
   <si>
@@ -3311,6 +3299,18 @@
   </si>
   <si>
     <t>"     Let’s review several types of images, and then create alternative      "</t>
+  </si>
+  <si>
+    <t>InstituitonsTab</t>
+  </si>
+  <si>
+    <t>FundraisingsTab</t>
+  </si>
+  <si>
+    <t>FundsTab</t>
+  </si>
+  <si>
+    <t>ThemesTab</t>
   </si>
 </sst>
 </file>
@@ -20900,13 +20900,13 @@
   <dimension ref="A1:Z399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B378" sqref="B378:B399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38" style="11" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16.77734375" style="10" bestFit="1" customWidth="1" collapsed="1"/>
@@ -21019,7 +21019,7 @@
         <v>440</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>410</v>
@@ -21097,10 +21097,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>410</v>
@@ -21178,10 +21178,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>410</v>
@@ -21259,16 +21259,16 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
@@ -21340,16 +21340,16 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
@@ -21421,16 +21421,16 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
@@ -21502,10 +21502,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>410</v>
@@ -21583,16 +21583,16 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
@@ -21664,10 +21664,10 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>410</v>
@@ -21745,16 +21745,16 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
@@ -21826,10 +21826,10 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>410</v>
@@ -21907,16 +21907,16 @@
     </row>
     <row r="13" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="0"/>
@@ -21988,10 +21988,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>410</v>
@@ -22069,16 +22069,16 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
@@ -22150,16 +22150,16 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
@@ -22231,16 +22231,16 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
@@ -22312,16 +22312,16 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E18" s="10">
         <f t="shared" si="0"/>
@@ -22393,10 +22393,10 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>410</v>
@@ -22474,10 +22474,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>410</v>
@@ -22555,16 +22555,16 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="0"/>
@@ -22636,10 +22636,10 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>410</v>
@@ -22717,10 +22717,10 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>410</v>
@@ -22798,10 +22798,10 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>410</v>
@@ -22879,10 +22879,10 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>410</v>
@@ -22960,16 +22960,16 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="0"/>
@@ -23041,10 +23041,10 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>410</v>
@@ -23122,16 +23122,16 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E28" s="10">
         <f t="shared" si="0"/>
@@ -23203,16 +23203,16 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="0"/>
@@ -23284,10 +23284,10 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>410</v>
@@ -23365,16 +23365,16 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E31" s="10">
         <f t="shared" si="0"/>
@@ -23446,10 +23446,10 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>410</v>
@@ -23527,10 +23527,10 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>410</v>
@@ -23608,16 +23608,16 @@
     </row>
     <row r="34" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
@@ -23689,16 +23689,16 @@
     </row>
     <row r="35" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
@@ -23770,16 +23770,16 @@
     </row>
     <row r="36" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
@@ -23851,10 +23851,10 @@
     </row>
     <row r="37" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>410</v>
@@ -23932,10 +23932,10 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>410</v>
@@ -24013,16 +24013,16 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E39" s="10">
         <f t="shared" si="0"/>
@@ -24094,16 +24094,16 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E40" s="10">
         <f t="shared" si="0"/>
@@ -24175,10 +24175,10 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>410</v>
@@ -24256,16 +24256,16 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E42" s="10">
         <f t="shared" si="0"/>
@@ -24337,16 +24337,16 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E43" s="10">
         <f t="shared" si="0"/>
@@ -24418,16 +24418,16 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E44" s="10">
         <f t="shared" si="0"/>
@@ -24499,10 +24499,10 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>410</v>
@@ -24580,16 +24580,16 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E46" s="10">
         <f t="shared" si="0"/>
@@ -24661,16 +24661,16 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E47" s="10">
         <f t="shared" si="0"/>
@@ -24742,16 +24742,16 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E48" s="10">
         <f t="shared" si="0"/>
@@ -24823,16 +24823,16 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E49" s="10">
         <f t="shared" si="0"/>
@@ -24904,16 +24904,16 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E50" s="10">
         <f t="shared" si="0"/>
@@ -24985,16 +24985,16 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E51" s="10">
         <f t="shared" si="0"/>
@@ -25066,16 +25066,16 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E52" s="10">
         <f t="shared" si="0"/>
@@ -25147,16 +25147,16 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E53" s="10">
         <f t="shared" si="0"/>
@@ -25228,16 +25228,16 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E54" s="10">
         <f t="shared" si="0"/>
@@ -25309,16 +25309,16 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E55" s="10">
         <f t="shared" si="0"/>
@@ -25390,16 +25390,16 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E56" s="10">
         <f t="shared" si="0"/>
@@ -25471,16 +25471,16 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E57" s="10">
         <f t="shared" si="0"/>
@@ -25552,16 +25552,16 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E58" s="10">
         <f t="shared" si="0"/>
@@ -25633,16 +25633,16 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E59" s="10">
         <f t="shared" si="0"/>
@@ -25714,16 +25714,16 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E60" s="10">
         <f t="shared" si="0"/>
@@ -25795,16 +25795,16 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E61" s="10">
         <f t="shared" si="0"/>
@@ -25876,16 +25876,16 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E62" s="10">
         <f t="shared" si="0"/>
@@ -25957,16 +25957,16 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E63" s="10">
         <f t="shared" si="0"/>
@@ -26038,16 +26038,16 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E64" s="10">
         <f t="shared" si="0"/>
@@ -26119,16 +26119,16 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E65" s="10">
         <f t="shared" si="0"/>
@@ -26200,16 +26200,16 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E66" s="10">
         <f t="shared" ref="E66:E129" si="1">SUM(F66:Z66)</f>
@@ -26281,16 +26281,16 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E67" s="10">
         <f t="shared" si="1"/>
@@ -26362,16 +26362,16 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E68" s="10">
         <f t="shared" si="1"/>
@@ -26443,16 +26443,16 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E69" s="10">
         <f t="shared" si="1"/>
@@ -26524,16 +26524,16 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>410</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E70" s="10">
         <f t="shared" si="1"/>
@@ -26605,13 +26605,13 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>558</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>559</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>25</v>
@@ -26686,13 +26686,13 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>164</v>
@@ -26767,16 +26767,16 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>561</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>562</v>
       </c>
       <c r="E73" s="10">
         <f t="shared" si="1"/>
@@ -26848,16 +26848,16 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>563</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>564</v>
       </c>
       <c r="E74" s="10">
         <f t="shared" si="1"/>
@@ -26929,13 +26929,13 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D75" s="11">
         <v>23232</v>
@@ -27010,16 +27010,16 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>566</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>567</v>
       </c>
       <c r="E76" s="10">
         <f t="shared" si="1"/>
@@ -27091,16 +27091,16 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>568</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>569</v>
       </c>
       <c r="E77" s="10">
         <f t="shared" si="1"/>
@@ -27172,16 +27172,16 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D78" s="13" t="s">
         <v>570</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>571</v>
       </c>
       <c r="E78" s="10">
         <f t="shared" si="1"/>
@@ -27253,16 +27253,16 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>572</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>573</v>
       </c>
       <c r="E79" s="10">
         <f t="shared" si="1"/>
@@ -27334,16 +27334,16 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>574</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>575</v>
       </c>
       <c r="E80" s="10">
         <f t="shared" si="1"/>
@@ -27415,16 +27415,16 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>576</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>577</v>
       </c>
       <c r="E81" s="10">
         <f t="shared" si="1"/>
@@ -27496,16 +27496,16 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D82" s="14" t="s">
         <v>578</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>579</v>
       </c>
       <c r="E82" s="10">
         <f t="shared" si="1"/>
@@ -27577,16 +27577,16 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>580</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>581</v>
       </c>
       <c r="E83" s="10">
         <f t="shared" si="1"/>
@@ -27658,16 +27658,16 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>582</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>583</v>
       </c>
       <c r="E84" s="10">
         <f t="shared" si="1"/>
@@ -27739,13 +27739,13 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D85" s="11">
         <v>5678901201</v>
@@ -27820,16 +27820,16 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>585</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>586</v>
       </c>
       <c r="E86" s="10">
         <f t="shared" si="1"/>
@@ -27901,16 +27901,16 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>587</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>588</v>
       </c>
       <c r="E87" s="10">
         <f t="shared" si="1"/>
@@ -27982,13 +27982,13 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D88" s="11">
         <v>4543543300</v>
@@ -28063,13 +28063,13 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>76</v>
@@ -28144,13 +28144,13 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>78</v>
@@ -28225,13 +28225,13 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>80</v>
@@ -28306,16 +28306,16 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>593</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>594</v>
       </c>
       <c r="E92" s="10">
         <f t="shared" si="1"/>
@@ -28387,16 +28387,16 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E93" s="10">
         <f t="shared" si="1"/>
@@ -28468,16 +28468,16 @@
     </row>
     <row r="94" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>596</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>597</v>
       </c>
       <c r="E94" s="15">
         <f t="shared" si="1"/>
@@ -28549,16 +28549,16 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>599</v>
       </c>
       <c r="E95" s="10">
         <f t="shared" si="1"/>
@@ -28630,16 +28630,16 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>601</v>
       </c>
       <c r="E96" s="10">
         <f t="shared" si="1"/>
@@ -28711,16 +28711,16 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>602</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>603</v>
       </c>
       <c r="E97" s="10">
         <f t="shared" si="1"/>
@@ -28792,16 +28792,16 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>604</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>605</v>
       </c>
       <c r="E98" s="10">
         <f t="shared" si="1"/>
@@ -28873,16 +28873,16 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>606</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>607</v>
       </c>
       <c r="E99" s="10">
         <f t="shared" si="1"/>
@@ -28954,16 +28954,16 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>608</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>609</v>
       </c>
       <c r="E100" s="10">
         <f t="shared" si="1"/>
@@ -29035,16 +29035,16 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>610</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>611</v>
       </c>
       <c r="E101" s="10">
         <f t="shared" si="1"/>
@@ -29116,16 +29116,16 @@
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D102" s="13" t="s">
         <v>612</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>613</v>
       </c>
       <c r="E102" s="10">
         <f t="shared" si="1"/>
@@ -29197,16 +29197,16 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>614</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>615</v>
       </c>
       <c r="E103" s="10">
         <f t="shared" si="1"/>
@@ -29278,16 +29278,16 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>616</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>617</v>
       </c>
       <c r="E104" s="10">
         <f t="shared" si="1"/>
@@ -29359,16 +29359,16 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D105" s="13" t="s">
         <v>618</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>619</v>
       </c>
       <c r="E105" s="10">
         <f t="shared" si="1"/>
@@ -29440,16 +29440,16 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>620</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>621</v>
       </c>
       <c r="E106" s="10">
         <f t="shared" si="1"/>
@@ -29521,13 +29521,13 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D107" s="11">
         <v>567890121</v>
@@ -29602,16 +29602,16 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>623</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>624</v>
       </c>
       <c r="E108" s="10">
         <f t="shared" si="1"/>
@@ -29683,16 +29683,16 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D109" s="13" t="s">
         <v>625</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>626</v>
       </c>
       <c r="E109" s="10">
         <f t="shared" si="1"/>
@@ -29764,16 +29764,16 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D110" s="13" t="s">
         <v>627</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>628</v>
       </c>
       <c r="E110" s="10">
         <f t="shared" si="1"/>
@@ -29845,16 +29845,16 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D111" s="11" t="s">
         <v>629</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>630</v>
       </c>
       <c r="E111" s="10">
         <f t="shared" si="1"/>
@@ -29926,13 +29926,13 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>631</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>632</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>25</v>
@@ -30007,16 +30007,16 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="E113" s="10">
         <f t="shared" si="1"/>
@@ -30088,16 +30088,16 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D114" s="13" t="s">
         <v>635</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>636</v>
       </c>
       <c r="E114" s="10">
         <f t="shared" si="1"/>
@@ -30169,16 +30169,16 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>637</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>638</v>
       </c>
       <c r="E115" s="10">
         <f t="shared" si="1"/>
@@ -30250,13 +30250,13 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>50</v>
@@ -30331,16 +30331,16 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D117" s="11" t="s">
         <v>640</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>641</v>
       </c>
       <c r="E117" s="10">
         <f t="shared" si="1"/>
@@ -30412,16 +30412,16 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>642</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>643</v>
       </c>
       <c r="E118" s="10">
         <f t="shared" si="1"/>
@@ -30493,16 +30493,16 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>644</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>645</v>
       </c>
       <c r="E119" s="10">
         <f t="shared" si="1"/>
@@ -30574,16 +30574,16 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>646</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>647</v>
       </c>
       <c r="E120" s="10">
         <f t="shared" si="1"/>
@@ -30655,13 +30655,13 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D121" s="11">
         <v>3456789013</v>
@@ -30736,13 +30736,13 @@
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>76</v>
@@ -30817,16 +30817,16 @@
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E123" s="10">
         <f t="shared" si="1"/>
@@ -30898,13 +30898,13 @@
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>80</v>
@@ -30979,13 +30979,13 @@
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>82</v>
@@ -31060,16 +31060,16 @@
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>653</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>654</v>
       </c>
       <c r="E126" s="10">
         <f t="shared" si="1"/>
@@ -31141,16 +31141,16 @@
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E127" s="10">
         <f t="shared" si="1"/>
@@ -31222,16 +31222,16 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D128" s="11" t="s">
         <v>656</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>657</v>
       </c>
       <c r="E128" s="10">
         <f t="shared" si="1"/>
@@ -31303,13 +31303,13 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>106</v>
@@ -31384,13 +31384,13 @@
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D130" s="11">
         <v>33333</v>
@@ -31465,16 +31465,16 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D131" s="11" t="s">
         <v>660</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>661</v>
       </c>
       <c r="E131" s="10">
         <f t="shared" si="2"/>
@@ -31546,16 +31546,16 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>663</v>
       </c>
       <c r="E132" s="10">
         <f t="shared" si="2"/>
@@ -31627,16 +31627,16 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D133" s="13" t="s">
         <v>664</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>665</v>
       </c>
       <c r="E133" s="10">
         <f t="shared" si="2"/>
@@ -31708,16 +31708,16 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>666</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>667</v>
       </c>
       <c r="E134" s="10">
         <f t="shared" si="2"/>
@@ -31789,16 +31789,16 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D135" s="11" t="s">
         <v>668</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>669</v>
       </c>
       <c r="E135" s="10">
         <f t="shared" si="2"/>
@@ -31870,16 +31870,16 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D136" s="13" t="s">
         <v>670</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>671</v>
       </c>
       <c r="E136" s="10">
         <f t="shared" si="2"/>
@@ -31951,13 +31951,13 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D137" s="11">
         <v>30000000</v>
@@ -32032,16 +32032,16 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D138" s="13" t="s">
         <v>673</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>674</v>
       </c>
       <c r="E138" s="10">
         <f t="shared" si="2"/>
@@ -32113,16 +32113,16 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D139" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>676</v>
       </c>
       <c r="E139" s="10">
         <f t="shared" si="2"/>
@@ -32194,16 +32194,16 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D140" s="11" t="s">
         <v>677</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>678</v>
       </c>
       <c r="E140" s="10">
         <f t="shared" si="2"/>
@@ -32275,16 +32275,16 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D141" s="13" t="s">
         <v>679</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D141" s="13" t="s">
-        <v>680</v>
       </c>
       <c r="E141" s="10">
         <f t="shared" si="2"/>
@@ -32356,16 +32356,16 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D142" s="11" t="s">
         <v>681</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>682</v>
       </c>
       <c r="E142" s="10">
         <f t="shared" si="2"/>
@@ -32437,16 +32437,16 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D143" s="13" t="s">
         <v>683</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D143" s="13" t="s">
-        <v>684</v>
       </c>
       <c r="E143" s="10">
         <f t="shared" si="2"/>
@@ -32518,16 +32518,16 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D144" s="11" t="s">
         <v>685</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>686</v>
       </c>
       <c r="E144" s="10">
         <f t="shared" si="2"/>
@@ -32599,13 +32599,13 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>687</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>688</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>25</v>
@@ -32680,16 +32680,16 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D146" s="13" t="s">
         <v>689</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>690</v>
       </c>
       <c r="E146" s="10">
         <f t="shared" si="2"/>
@@ -32761,13 +32761,13 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D147" s="13" t="s">
         <v>195</v>
@@ -32842,16 +32842,16 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D148" s="11" t="s">
         <v>692</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>693</v>
       </c>
       <c r="E148" s="10">
         <f t="shared" si="2"/>
@@ -32923,16 +32923,16 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>694</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>695</v>
       </c>
       <c r="E149" s="10">
         <f t="shared" si="2"/>
@@ -33004,16 +33004,16 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D150" s="13" t="s">
         <v>696</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>697</v>
       </c>
       <c r="E150" s="10">
         <f t="shared" si="2"/>
@@ -33085,16 +33085,16 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D151" s="13" t="s">
         <v>698</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D151" s="13" t="s">
-        <v>699</v>
       </c>
       <c r="E151" s="10">
         <f t="shared" si="2"/>
@@ -33166,16 +33166,16 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>700</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>701</v>
       </c>
       <c r="E152" s="10">
         <f t="shared" si="2"/>
@@ -33247,16 +33247,16 @@
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>702</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>703</v>
       </c>
       <c r="E153" s="10">
         <f t="shared" si="2"/>
@@ -33328,13 +33328,13 @@
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D154" s="11">
         <v>3242342003</v>
@@ -33409,13 +33409,13 @@
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>76</v>
@@ -33490,16 +33490,16 @@
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E156" s="10">
         <f t="shared" si="2"/>
@@ -33571,13 +33571,13 @@
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D157" s="11" t="s">
         <v>80</v>
@@ -33652,13 +33652,13 @@
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D158" s="11" t="s">
         <v>82</v>
@@ -33733,16 +33733,16 @@
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D159" s="11" t="s">
         <v>709</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>710</v>
       </c>
       <c r="E159" s="10">
         <f t="shared" si="2"/>
@@ -33814,16 +33814,16 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E160" s="10">
         <f t="shared" si="2"/>
@@ -33895,16 +33895,16 @@
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D161" s="11" t="s">
         <v>712</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>713</v>
       </c>
       <c r="E161" s="10">
         <f t="shared" si="2"/>
@@ -33976,16 +33976,16 @@
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E162" s="10">
         <f t="shared" si="2"/>
@@ -34057,16 +34057,16 @@
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D163" s="11" t="s">
         <v>715</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>716</v>
       </c>
       <c r="E163" s="10">
         <f t="shared" si="2"/>
@@ -34138,16 +34138,16 @@
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D164" s="11" t="s">
         <v>717</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>718</v>
       </c>
       <c r="E164" s="10">
         <f t="shared" si="2"/>
@@ -34219,16 +34219,16 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D165" s="11" t="s">
         <v>719</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>720</v>
       </c>
       <c r="E165" s="10">
         <f t="shared" si="2"/>
@@ -34300,16 +34300,16 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D166" s="11" t="s">
         <v>721</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>722</v>
       </c>
       <c r="E166" s="10">
         <f t="shared" si="2"/>
@@ -34381,16 +34381,16 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D167" s="13" t="s">
         <v>723</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>724</v>
       </c>
       <c r="E167" s="10">
         <f t="shared" si="2"/>
@@ -34462,16 +34462,16 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D168" s="11" t="s">
         <v>725</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>726</v>
       </c>
       <c r="E168" s="10">
         <f t="shared" si="2"/>
@@ -34543,16 +34543,16 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E169" s="10">
         <f t="shared" si="2"/>
@@ -34624,16 +34624,16 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" s="11" t="s">
+        <v>727</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D170" s="11" t="s">
         <v>728</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>729</v>
       </c>
       <c r="E170" s="10">
         <f t="shared" si="2"/>
@@ -34705,16 +34705,16 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D171" s="11" t="s">
         <v>730</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>731</v>
       </c>
       <c r="E171" s="10">
         <f t="shared" si="2"/>
@@ -34786,16 +34786,16 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D172" s="11" t="s">
         <v>732</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>733</v>
       </c>
       <c r="E172" s="10">
         <f t="shared" si="2"/>
@@ -34867,16 +34867,16 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D173" s="11" t="s">
         <v>734</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>735</v>
       </c>
       <c r="E173" s="10">
         <f t="shared" si="2"/>
@@ -34948,16 +34948,16 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>736</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>737</v>
       </c>
       <c r="E174" s="10">
         <f>SUM(F174:Z174)</f>
@@ -35029,16 +35029,16 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="D175" s="11" t="s">
         <v>738</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>739</v>
       </c>
       <c r="E175" s="10">
         <f t="shared" si="2"/>
@@ -35110,13 +35110,13 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C176" s="11" t="s">
         <v>740</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>741</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>25</v>
@@ -35191,16 +35191,16 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D177" s="11" t="s">
         <v>742</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>743</v>
       </c>
       <c r="E177" s="10">
         <f t="shared" si="2"/>
@@ -35272,16 +35272,16 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D178" s="17" t="s">
         <v>744</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>745</v>
       </c>
       <c r="E178" s="10">
         <f t="shared" si="2"/>
@@ -35353,16 +35353,16 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C179" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D179" s="11" t="s">
         <v>746</v>
-      </c>
-      <c r="B179" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>747</v>
       </c>
       <c r="E179" s="10">
         <f t="shared" si="2"/>
@@ -35434,13 +35434,13 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D180" s="11">
         <v>55555</v>
@@ -35515,16 +35515,16 @@
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D181" s="11" t="s">
         <v>749</v>
-      </c>
-      <c r="B181" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>750</v>
       </c>
       <c r="E181" s="10">
         <f t="shared" si="2"/>
@@ -35596,16 +35596,16 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D182" s="13" t="s">
         <v>751</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D182" s="13" t="s">
-        <v>752</v>
       </c>
       <c r="E182" s="10">
         <f t="shared" si="2"/>
@@ -35677,16 +35677,16 @@
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D183" s="13" t="s">
         <v>753</v>
-      </c>
-      <c r="B183" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D183" s="13" t="s">
-        <v>754</v>
       </c>
       <c r="E183" s="10">
         <f t="shared" si="2"/>
@@ -35758,16 +35758,16 @@
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D184" s="11" t="s">
         <v>755</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>756</v>
       </c>
       <c r="E184" s="10">
         <f t="shared" si="2"/>
@@ -35839,16 +35839,16 @@
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D185" s="11" t="s">
         <v>757</v>
-      </c>
-      <c r="B185" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>758</v>
       </c>
       <c r="E185" s="10">
         <f t="shared" si="2"/>
@@ -35920,16 +35920,16 @@
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D186" s="11" t="s">
         <v>759</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>760</v>
       </c>
       <c r="E186" s="10">
         <f t="shared" si="2"/>
@@ -36001,16 +36001,16 @@
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D187" s="11" t="s">
         <v>761</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>762</v>
       </c>
       <c r="E187" s="10">
         <f t="shared" si="2"/>
@@ -36082,16 +36082,16 @@
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D188" s="11" t="s">
         <v>763</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>764</v>
       </c>
       <c r="E188" s="10">
         <f t="shared" si="2"/>
@@ -36163,13 +36163,13 @@
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D189" s="11">
         <v>56789</v>
@@ -36244,16 +36244,16 @@
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D190" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="B190" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>767</v>
       </c>
       <c r="E190" s="10">
         <f t="shared" si="2"/>
@@ -36325,16 +36325,16 @@
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D191" s="11" t="s">
         <v>768</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>769</v>
       </c>
       <c r="E191" s="10">
         <f t="shared" si="2"/>
@@ -36406,13 +36406,13 @@
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D192" s="11">
         <v>4543542233</v>
@@ -36487,13 +36487,13 @@
     </row>
     <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D193" s="13" t="s">
         <v>76</v>
@@ -36568,16 +36568,16 @@
     </row>
     <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E194" s="10">
         <f t="shared" ref="E194:E257" si="3">SUM(F194:Z194)</f>
@@ -36649,13 +36649,13 @@
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D195" s="11" t="s">
         <v>80</v>
@@ -36730,13 +36730,13 @@
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D196" s="11" t="s">
         <v>82</v>
@@ -36811,16 +36811,16 @@
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E197" s="10">
         <f t="shared" si="3"/>
@@ -36892,16 +36892,16 @@
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D198" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="B198" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C198" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D198" s="11" t="s">
-        <v>777</v>
       </c>
       <c r="E198" s="10">
         <f t="shared" si="3"/>
@@ -36973,16 +36973,16 @@
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E199" s="10">
         <f t="shared" si="3"/>
@@ -37054,16 +37054,16 @@
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D200" s="11" t="s">
         <v>779</v>
-      </c>
-      <c r="B200" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C200" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>780</v>
       </c>
       <c r="E200" s="10">
         <f t="shared" si="3"/>
@@ -37135,16 +37135,16 @@
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A201" s="11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D201" s="11" t="s">
         <v>781</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D201" s="11" t="s">
-        <v>782</v>
       </c>
       <c r="E201" s="10">
         <f t="shared" si="3"/>
@@ -37216,16 +37216,16 @@
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A202" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D202" s="11" t="s">
         <v>783</v>
-      </c>
-      <c r="B202" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>784</v>
       </c>
       <c r="E202" s="10">
         <f t="shared" si="3"/>
@@ -37297,16 +37297,16 @@
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D203" s="11" t="s">
         <v>785</v>
-      </c>
-      <c r="B203" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D203" s="11" t="s">
-        <v>786</v>
       </c>
       <c r="E203" s="10">
         <f t="shared" si="3"/>
@@ -37378,16 +37378,16 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A204" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D204" s="17" t="s">
         <v>787</v>
-      </c>
-      <c r="B204" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>788</v>
       </c>
       <c r="E204" s="10">
         <f t="shared" si="3"/>
@@ -37459,16 +37459,16 @@
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C205" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D205" s="17" t="s">
         <v>789</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C205" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>790</v>
       </c>
       <c r="E205" s="10">
         <f t="shared" si="3"/>
@@ -37540,16 +37540,16 @@
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A206" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D206" s="11" t="s">
         <v>791</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D206" s="11" t="s">
-        <v>792</v>
       </c>
       <c r="E206" s="10">
         <f t="shared" si="3"/>
@@ -37621,16 +37621,16 @@
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D207" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E207" s="10">
         <f t="shared" si="3"/>
@@ -37702,16 +37702,16 @@
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A208" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D208" s="11" t="s">
         <v>794</v>
-      </c>
-      <c r="B208" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D208" s="11" t="s">
-        <v>795</v>
       </c>
       <c r="E208" s="10">
         <f t="shared" si="3"/>
@@ -37783,16 +37783,16 @@
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A209" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E209" s="10">
         <f t="shared" si="3"/>
@@ -37864,16 +37864,16 @@
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A210" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D210" s="11" t="s">
         <v>797</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>798</v>
       </c>
       <c r="E210" s="10">
         <f t="shared" si="3"/>
@@ -37945,16 +37945,16 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A211" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C211" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D211" s="11" t="s">
         <v>799</v>
-      </c>
-      <c r="B211" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D211" s="11" t="s">
-        <v>800</v>
       </c>
       <c r="E211" s="10">
         <f t="shared" si="3"/>
@@ -38026,16 +38026,16 @@
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A212" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D212" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D212" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="E212" s="10">
         <f t="shared" si="3"/>
@@ -38107,16 +38107,16 @@
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A213" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C213" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D213" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D213" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="E213" s="10">
         <f t="shared" si="3"/>
@@ -38188,16 +38188,16 @@
     </row>
     <row r="214" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A214" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D214" s="11" t="s">
         <v>805</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D214" s="11" t="s">
-        <v>806</v>
       </c>
       <c r="E214" s="10">
         <f t="shared" si="3"/>
@@ -38269,16 +38269,16 @@
     </row>
     <row r="215" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A215" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C215" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D215" s="11" t="s">
         <v>807</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="D215" s="11" t="s">
-        <v>808</v>
       </c>
       <c r="E215" s="10">
         <f t="shared" si="3"/>
@@ -38350,13 +38350,13 @@
     </row>
     <row r="216" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A216" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C216" s="11" t="s">
         <v>809</v>
-      </c>
-      <c r="B216" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>810</v>
       </c>
       <c r="D216" s="11" t="s">
         <v>25</v>
@@ -38431,16 +38431,16 @@
     </row>
     <row r="217" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A217" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D217" s="11" t="s">
         <v>811</v>
-      </c>
-      <c r="B217" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C217" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>812</v>
       </c>
       <c r="E217" s="10">
         <f t="shared" si="3"/>
@@ -38512,13 +38512,13 @@
     </row>
     <row r="218" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A218" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D218" s="11">
         <v>30000000</v>
@@ -38593,16 +38593,16 @@
     </row>
     <row r="219" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D219" s="11" t="s">
         <v>814</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D219" s="11" t="s">
-        <v>815</v>
       </c>
       <c r="E219" s="10">
         <f t="shared" si="3"/>
@@ -38674,16 +38674,16 @@
     </row>
     <row r="220" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D220" s="11" t="s">
         <v>816</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C220" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>817</v>
       </c>
       <c r="E220" s="10">
         <f t="shared" si="3"/>
@@ -38755,16 +38755,16 @@
     </row>
     <row r="221" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D221" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="B221" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C221" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D221" s="11" t="s">
-        <v>819</v>
       </c>
       <c r="E221" s="10">
         <f t="shared" si="3"/>
@@ -38836,16 +38836,16 @@
     </row>
     <row r="222" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D222" s="11" t="s">
         <v>820</v>
-      </c>
-      <c r="B222" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C222" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D222" s="11" t="s">
-        <v>821</v>
       </c>
       <c r="E222" s="10">
         <f t="shared" si="3"/>
@@ -38917,16 +38917,16 @@
     </row>
     <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D223" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E223" s="10">
         <f t="shared" si="3"/>
@@ -38998,16 +38998,16 @@
     </row>
     <row r="224" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D224" s="11" t="s">
         <v>823</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C224" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D224" s="11" t="s">
-        <v>824</v>
       </c>
       <c r="E224" s="10">
         <f t="shared" si="3"/>
@@ -39079,13 +39079,13 @@
     </row>
     <row r="225" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A225" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D225" s="11">
         <v>2123123122</v>
@@ -39160,13 +39160,13 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D226" s="13" t="s">
         <v>76</v>
@@ -39241,16 +39241,16 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E227" s="10">
         <f t="shared" si="3"/>
@@ -39322,13 +39322,13 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>80</v>
@@ -39403,13 +39403,13 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>82</v>
@@ -39484,16 +39484,16 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D230" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="B230" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>831</v>
       </c>
       <c r="E230" s="10">
         <f t="shared" si="3"/>
@@ -39565,16 +39565,16 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E231" s="10">
         <f t="shared" si="3"/>
@@ -39646,16 +39646,16 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D232" s="11" t="s">
         <v>833</v>
-      </c>
-      <c r="B232" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C232" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>834</v>
       </c>
       <c r="E232" s="10">
         <f t="shared" si="3"/>
@@ -39727,16 +39727,16 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D233" s="16" t="s">
         <v>835</v>
-      </c>
-      <c r="B233" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D233" s="16" t="s">
-        <v>836</v>
       </c>
       <c r="E233" s="10">
         <f t="shared" si="3"/>
@@ -39808,16 +39808,16 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D234" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="B234" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D234" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="E234" s="10">
         <f t="shared" si="3"/>
@@ -39889,13 +39889,13 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D235" s="11">
         <v>21231232</v>
@@ -39970,13 +39970,13 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D236" s="11">
         <v>34567</v>
@@ -40051,16 +40051,16 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D237" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E237" s="10">
         <f t="shared" si="3"/>
@@ -40132,16 +40132,16 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D238" s="13" t="s">
         <v>842</v>
-      </c>
-      <c r="B238" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D238" s="13" t="s">
-        <v>843</v>
       </c>
       <c r="E238" s="10">
         <f t="shared" si="3"/>
@@ -40213,16 +40213,16 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D239" s="11" t="s">
         <v>844</v>
-      </c>
-      <c r="B239" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C239" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D239" s="11" t="s">
-        <v>845</v>
       </c>
       <c r="E239" s="10">
         <f t="shared" si="3"/>
@@ -40294,16 +40294,16 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D240" s="11" t="s">
         <v>846</v>
-      </c>
-      <c r="B240" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D240" s="11" t="s">
-        <v>847</v>
       </c>
       <c r="E240" s="10">
         <f t="shared" si="3"/>
@@ -40375,16 +40375,16 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D241" s="11" t="s">
         <v>848</v>
-      </c>
-      <c r="B241" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>849</v>
       </c>
       <c r="E241" s="10">
         <f t="shared" si="3"/>
@@ -40456,13 +40456,13 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A242" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C242" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D242" s="11" t="s">
         <v>409</v>
@@ -40537,16 +40537,16 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A243" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D243" s="11" t="s">
         <v>851</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D243" s="11" t="s">
-        <v>852</v>
       </c>
       <c r="E243" s="10">
         <f t="shared" si="3"/>
@@ -40618,16 +40618,16 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A244" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D244" s="11" t="s">
         <v>853</v>
-      </c>
-      <c r="B244" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D244" s="11" t="s">
-        <v>854</v>
       </c>
       <c r="E244" s="10">
         <f t="shared" si="3"/>
@@ -40699,16 +40699,16 @@
     </row>
     <row r="245" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A245" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D245" s="11" t="s">
         <v>855</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D245" s="11" t="s">
-        <v>856</v>
       </c>
       <c r="E245" s="10">
         <f t="shared" si="3"/>
@@ -40780,16 +40780,16 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D246" s="13" t="s">
         <v>857</v>
-      </c>
-      <c r="B246" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D246" s="13" t="s">
-        <v>858</v>
       </c>
       <c r="E246" s="10">
         <f t="shared" si="3"/>
@@ -40861,16 +40861,16 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D247" s="11" t="s">
         <v>859</v>
-      </c>
-      <c r="B247" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>810</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>860</v>
       </c>
       <c r="E247" s="10">
         <f t="shared" si="3"/>
@@ -40942,13 +40942,13 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C248" s="11" t="s">
         <v>861</v>
-      </c>
-      <c r="B248" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C248" s="11" t="s">
-        <v>862</v>
       </c>
       <c r="D248" s="11" t="s">
         <v>25</v>
@@ -41023,16 +41023,16 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D249" s="11" t="s">
         <v>863</v>
-      </c>
-      <c r="B249" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D249" s="11" t="s">
-        <v>864</v>
       </c>
       <c r="E249" s="10">
         <f t="shared" si="3"/>
@@ -41104,16 +41104,16 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E250" s="10">
         <f t="shared" si="3"/>
@@ -41185,16 +41185,16 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D251" s="11" t="s">
         <v>866</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D251" s="11" t="s">
-        <v>867</v>
       </c>
       <c r="E251" s="10">
         <f t="shared" si="3"/>
@@ -41266,16 +41266,16 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D252" s="11" t="s">
         <v>868</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D252" s="11" t="s">
-        <v>869</v>
       </c>
       <c r="E252" s="10">
         <f t="shared" si="3"/>
@@ -41347,16 +41347,16 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A253" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E253" s="10">
         <f t="shared" si="3"/>
@@ -41428,16 +41428,16 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E254" s="10">
         <f t="shared" si="3"/>
@@ -41509,16 +41509,16 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D255" s="11" t="s">
         <v>872</v>
-      </c>
-      <c r="B255" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D255" s="11" t="s">
-        <v>873</v>
       </c>
       <c r="E255" s="10">
         <f t="shared" si="3"/>
@@ -41590,16 +41590,16 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D256" s="11" t="s">
         <v>874</v>
-      </c>
-      <c r="B256" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>875</v>
       </c>
       <c r="E256" s="10">
         <f t="shared" si="3"/>
@@ -41671,13 +41671,13 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257" s="11" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C257" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D257" s="11">
         <v>22222</v>
@@ -41752,13 +41752,13 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258" s="11" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C258" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D258" s="13" t="s">
         <v>76</v>
@@ -41833,16 +41833,16 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259" s="11" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C259" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E259" s="10">
         <f t="shared" si="4"/>
@@ -41914,13 +41914,13 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A260" s="11" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C260" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D260" s="11" t="s">
         <v>80</v>
@@ -41995,13 +41995,13 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A261" s="11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C261" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D261" s="11" t="s">
         <v>82</v>
@@ -42076,16 +42076,16 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A262" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D262" s="11" t="s">
         <v>881</v>
-      </c>
-      <c r="B262" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D262" s="11" t="s">
-        <v>882</v>
       </c>
       <c r="E262" s="10">
         <f t="shared" si="4"/>
@@ -42157,16 +42157,16 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A263" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C263" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E263" s="10">
         <f t="shared" si="4"/>
@@ -42238,16 +42238,16 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A264" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D264" s="11" t="s">
         <v>884</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C264" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D264" s="11" t="s">
-        <v>885</v>
       </c>
       <c r="E264" s="10">
         <f t="shared" si="4"/>
@@ -42319,16 +42319,16 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A265" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D265" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C265" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D265" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="E265" s="10">
         <f t="shared" si="4"/>
@@ -42400,16 +42400,16 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A266" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D266" s="11" t="s">
         <v>888</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C266" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D266" s="11" t="s">
-        <v>889</v>
       </c>
       <c r="E266" s="10">
         <f t="shared" si="4"/>
@@ -42481,16 +42481,16 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D267" s="11" t="s">
         <v>890</v>
-      </c>
-      <c r="B267" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C267" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D267" s="11" t="s">
-        <v>891</v>
       </c>
       <c r="E267" s="10">
         <f t="shared" si="4"/>
@@ -42562,16 +42562,16 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D268" s="11" t="s">
         <v>892</v>
-      </c>
-      <c r="B268" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C268" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D268" s="11" t="s">
-        <v>893</v>
       </c>
       <c r="E268" s="10">
         <f t="shared" si="4"/>
@@ -42643,13 +42643,13 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A269" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D269" s="11">
         <v>89675</v>
@@ -42724,16 +42724,16 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A270" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E270" s="10">
         <f t="shared" si="4"/>
@@ -42805,16 +42805,16 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D271" s="13" t="s">
         <v>896</v>
-      </c>
-      <c r="B271" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C271" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D271" s="13" t="s">
-        <v>897</v>
       </c>
       <c r="E271" s="10">
         <f t="shared" si="4"/>
@@ -42886,13 +42886,13 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D272" s="11" t="s">
         <v>166</v>
@@ -42967,16 +42967,16 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>441</v>
+        <v>1085</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D273" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E273" s="10">
         <f t="shared" si="4"/>
@@ -43048,16 +43048,16 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A274" s="11" t="s">
+        <v>899</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D274" s="11" t="s">
         <v>900</v>
-      </c>
-      <c r="B274" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C274" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D274" s="11" t="s">
-        <v>901</v>
       </c>
       <c r="E274" s="10">
         <f t="shared" si="4"/>
@@ -43129,16 +43129,16 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D275" s="11" t="s">
         <v>902</v>
-      </c>
-      <c r="B275" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C275" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D275" s="11" t="s">
-        <v>903</v>
       </c>
       <c r="E275" s="10">
         <f t="shared" si="4"/>
@@ -43210,16 +43210,16 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D276" s="11" t="s">
         <v>904</v>
-      </c>
-      <c r="B276" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C276" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D276" s="11" t="s">
-        <v>905</v>
       </c>
       <c r="E276" s="10">
         <f t="shared" si="4"/>
@@ -43291,16 +43291,16 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D277" s="11" t="s">
         <v>906</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C277" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D277" s="11" t="s">
-        <v>907</v>
       </c>
       <c r="E277" s="10">
         <f t="shared" si="4"/>
@@ -43372,16 +43372,16 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D278" s="11" t="s">
         <v>908</v>
-      </c>
-      <c r="B278" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C278" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D278" s="11" t="s">
-        <v>909</v>
       </c>
       <c r="E278" s="10">
         <f t="shared" si="4"/>
@@ -43453,16 +43453,16 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D279" s="11" t="s">
         <v>910</v>
-      </c>
-      <c r="B279" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C279" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D279" s="11" t="s">
-        <v>911</v>
       </c>
       <c r="E279" s="10">
         <f t="shared" si="4"/>
@@ -43534,10 +43534,10 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
+        <v>911</v>
+      </c>
+      <c r="B280" s="10" t="s">
         <v>912</v>
-      </c>
-      <c r="B280" s="10" t="s">
-        <v>913</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>411</v>
@@ -43615,16 +43615,16 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E281" s="10">
         <f t="shared" si="4"/>
@@ -43696,16 +43696,16 @@
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A282" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E282" s="10">
         <f t="shared" si="4"/>
@@ -43777,16 +43777,16 @@
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E283" s="10">
         <f t="shared" si="4"/>
@@ -43858,10 +43858,10 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>411</v>
@@ -43939,16 +43939,16 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E285" s="10">
         <f t="shared" si="4"/>
@@ -44020,16 +44020,16 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B286" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E286" s="10">
         <f t="shared" si="4"/>
@@ -44101,16 +44101,16 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B287" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E287" s="10">
         <f t="shared" si="4"/>
@@ -44182,16 +44182,16 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E288" s="10">
         <f t="shared" si="4"/>
@@ -44263,10 +44263,10 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A289" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B289" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>411</v>
@@ -44344,10 +44344,10 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A290" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B290" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>411</v>
@@ -44425,16 +44425,16 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A291" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B291" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E291" s="10">
         <f t="shared" si="4"/>
@@ -44506,10 +44506,10 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>411</v>
@@ -44587,10 +44587,10 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A293" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>411</v>
@@ -44668,10 +44668,10 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A294" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>411</v>
@@ -44749,16 +44749,16 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A295" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B295" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E295" s="10">
         <f t="shared" si="4"/>
@@ -44830,16 +44830,16 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D296" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E296" s="10">
         <f t="shared" si="4"/>
@@ -44911,16 +44911,16 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A297" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E297" s="10">
         <f t="shared" si="4"/>
@@ -44992,16 +44992,16 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A298" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D298" s="13" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E298" s="10">
         <f t="shared" si="4"/>
@@ -45073,16 +45073,16 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A299" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C299" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E299" s="10">
         <f t="shared" si="4"/>
@@ -45154,16 +45154,16 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A300" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E300" s="10">
         <f t="shared" si="4"/>
@@ -45235,16 +45235,16 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A301" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E301" s="10">
         <f t="shared" si="4"/>
@@ -45316,10 +45316,10 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>411</v>
@@ -45397,16 +45397,16 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A303" s="11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E303" s="10">
         <f t="shared" si="4"/>
@@ -45478,16 +45478,16 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A304" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E304" s="10">
         <f t="shared" si="4"/>
@@ -45559,10 +45559,10 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A305" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>411</v>
@@ -45640,16 +45640,16 @@
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A306" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E306" s="10">
         <f t="shared" si="4"/>
@@ -45721,16 +45721,16 @@
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A307" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E307" s="10">
         <f t="shared" si="4"/>
@@ -45802,16 +45802,16 @@
     </row>
     <row r="308" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A308" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E308" s="10">
         <f t="shared" si="4"/>
@@ -45883,16 +45883,16 @@
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A309" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E309" s="10">
         <f t="shared" si="4"/>
@@ -45964,16 +45964,16 @@
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A310" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E310" s="10">
         <f t="shared" si="4"/>
@@ -46045,16 +46045,16 @@
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A311" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>411</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E311" s="10">
         <f t="shared" si="4"/>
@@ -46126,13 +46126,13 @@
     </row>
     <row r="312" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A312" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="B312" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="C312" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="C312" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="D312" s="11" t="s">
         <v>25</v>
@@ -46207,16 +46207,16 @@
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B313" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C313" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C313" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D313" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E313" s="10">
         <f t="shared" si="4"/>
@@ -46288,16 +46288,16 @@
     </row>
     <row r="314" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A314" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B314" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C314" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C314" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D314" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E314" s="10">
         <f t="shared" si="4"/>
@@ -46369,16 +46369,16 @@
     </row>
     <row r="315" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A315" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C315" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D315" s="11" t="s">
         <v>968</v>
-      </c>
-      <c r="B315" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C315" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="D315" s="11" t="s">
-        <v>969</v>
       </c>
       <c r="E315" s="10">
         <f t="shared" si="4"/>
@@ -46450,16 +46450,16 @@
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A316" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B316" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C316" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C316" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D316" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E316" s="10">
         <f t="shared" si="4"/>
@@ -46531,13 +46531,13 @@
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A317" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B317" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C317" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="C317" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="D317" s="11">
         <v>1234567810</v>
@@ -46612,13 +46612,13 @@
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A318" s="11" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B318" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C318" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="C318" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="D318" s="13" t="s">
         <v>76</v>
@@ -46693,16 +46693,16 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B319" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C319" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C319" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D319" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E319" s="10">
         <f t="shared" si="4"/>
@@ -46774,13 +46774,13 @@
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B320" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C320" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="C320" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="D320" s="11" t="s">
         <v>80</v>
@@ -46855,13 +46855,13 @@
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B321" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C321" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="C321" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="D321" s="11" t="s">
         <v>82</v>
@@ -46936,13 +46936,13 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A322" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B322" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C322" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="C322" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="D322" s="11" t="s">
         <v>93</v>
@@ -47017,16 +47017,16 @@
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B323" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C323" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C323" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D323" s="16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E323" s="10">
         <f t="shared" si="5"/>
@@ -47098,16 +47098,16 @@
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D324" s="11" t="s">
         <v>978</v>
-      </c>
-      <c r="B324" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C324" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>979</v>
       </c>
       <c r="E324" s="10">
         <f t="shared" si="5"/>
@@ -47179,16 +47179,16 @@
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B325" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C325" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C325" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D325" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E325" s="10">
         <f t="shared" si="5"/>
@@ -47260,13 +47260,13 @@
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B326" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C326" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="C326" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="D326" s="13" t="s">
         <v>195</v>
@@ -47341,13 +47341,13 @@
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B327" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C327" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="C327" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="D327" s="11">
         <v>11111</v>
@@ -47422,16 +47422,16 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
+        <v>982</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D328" s="11" t="s">
         <v>983</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C328" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="D328" s="11" t="s">
-        <v>984</v>
       </c>
       <c r="E328" s="10">
         <f t="shared" si="5"/>
@@ -47503,16 +47503,16 @@
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B329" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C329" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C329" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D329" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E329" s="10">
         <f t="shared" si="5"/>
@@ -47584,13 +47584,13 @@
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B330" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C330" s="11" t="s">
         <v>964</v>
-      </c>
-      <c r="C330" s="11" t="s">
-        <v>965</v>
       </c>
       <c r="D330" s="11" t="s">
         <v>110</v>
@@ -47665,16 +47665,16 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B331" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C331" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="11" t="s">
-        <v>965</v>
-      </c>
       <c r="D331" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E331" s="10">
         <f t="shared" si="5"/>
@@ -47746,16 +47746,16 @@
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A332" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D332" s="13" t="s">
         <v>988</v>
-      </c>
-      <c r="B332" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C332" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="D332" s="13" t="s">
-        <v>989</v>
       </c>
       <c r="E332" s="10">
         <f t="shared" si="5"/>
@@ -47827,16 +47827,16 @@
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
+        <v>989</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D333" s="11" t="s">
         <v>990</v>
-      </c>
-      <c r="B333" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C333" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="D333" s="11" t="s">
-        <v>991</v>
       </c>
       <c r="E333" s="10">
         <f t="shared" si="5"/>
@@ -47908,16 +47908,16 @@
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
+        <v>991</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D334" s="11" t="s">
         <v>992</v>
-      </c>
-      <c r="B334" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C334" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="D334" s="11" t="s">
-        <v>993</v>
       </c>
       <c r="E334" s="10">
         <f t="shared" si="5"/>
@@ -47989,16 +47989,16 @@
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A335" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="D335" s="11" t="s">
         <v>994</v>
-      </c>
-      <c r="B335" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="C335" s="11" t="s">
-        <v>965</v>
-      </c>
-      <c r="D335" s="11" t="s">
-        <v>995</v>
       </c>
       <c r="E335" s="10">
         <f t="shared" si="5"/>
@@ -48070,13 +48070,13 @@
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C336" s="11" t="s">
         <v>996</v>
-      </c>
-      <c r="B336" s="10" t="s">
-        <v>997</v>
-      </c>
-      <c r="C336" s="11" t="s">
-        <v>998</v>
       </c>
       <c r="D336" s="11" t="s">
         <v>25</v>
@@ -48151,16 +48151,16 @@
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A337" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E337" s="10">
         <f t="shared" si="5"/>
@@ -48232,16 +48232,16 @@
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A338" s="11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E338" s="10">
         <f t="shared" si="5"/>
@@ -48313,16 +48313,16 @@
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A339" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D339" s="11" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E339" s="10">
         <f t="shared" si="5"/>
@@ -48394,16 +48394,16 @@
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D340" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E340" s="10">
         <f t="shared" si="5"/>
@@ -48475,13 +48475,13 @@
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D341" s="13" t="s">
         <v>76</v>
@@ -48556,16 +48556,16 @@
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A342" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E342" s="10">
         <f t="shared" si="5"/>
@@ -48637,13 +48637,13 @@
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A343" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D343" s="11" t="s">
         <v>80</v>
@@ -48718,13 +48718,13 @@
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D344" s="11" t="s">
         <v>82</v>
@@ -48799,13 +48799,13 @@
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A345" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D345" s="13" t="s">
         <v>195</v>
@@ -48880,16 +48880,16 @@
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A346" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C346" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E346" s="10">
         <f t="shared" si="5"/>
@@ -48961,13 +48961,13 @@
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D347" s="11">
         <v>57637</v>
@@ -49042,16 +49042,16 @@
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D348" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E348" s="10">
         <f t="shared" si="5"/>
@@ -49123,16 +49123,16 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E349" s="10">
         <f t="shared" si="5"/>
@@ -49204,16 +49204,16 @@
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C350" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D350" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E350" s="10">
         <f t="shared" si="5"/>
@@ -49285,16 +49285,16 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B351" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E351" s="10">
         <f t="shared" si="5"/>
@@ -49366,16 +49366,16 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B352" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C352" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E352" s="10">
         <f t="shared" si="5"/>
@@ -49447,16 +49447,16 @@
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E353" s="10">
         <f t="shared" si="5"/>
@@ -49528,16 +49528,16 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E354" s="10">
         <f t="shared" si="5"/>
@@ -49609,16 +49609,16 @@
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>997</v>
+        <v>1087</v>
       </c>
       <c r="C355" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E355" s="10">
         <f t="shared" si="5"/>
@@ -49690,13 +49690,13 @@
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D356" s="11" t="s">
         <v>25</v>
@@ -49771,16 +49771,16 @@
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E357" s="10">
         <f t="shared" si="5"/>
@@ -49852,16 +49852,16 @@
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A358" s="11" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B358" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C358" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D358" s="11" t="s">
         <v>1028</v>
-      </c>
-      <c r="D358" s="11" t="s">
-        <v>1031</v>
       </c>
       <c r="E358" s="10">
         <f t="shared" si="5"/>
@@ -49933,16 +49933,16 @@
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B359" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E359" s="10">
         <f t="shared" si="5"/>
@@ -50014,16 +50014,16 @@
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E360" s="10">
         <f t="shared" si="5"/>
@@ -50095,13 +50095,13 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C361" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D361" s="11">
         <v>3456789013</v>
@@ -50176,13 +50176,13 @@
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D362" s="13" t="s">
         <v>76</v>
@@ -50257,16 +50257,16 @@
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E363" s="10">
         <f t="shared" si="5"/>
@@ -50338,13 +50338,13 @@
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C364" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D364" s="11" t="s">
         <v>80</v>
@@ -50419,13 +50419,13 @@
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A365" s="11" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D365" s="11" t="s">
         <v>82</v>
@@ -50500,16 +50500,16 @@
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B366" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E366" s="10">
         <f t="shared" si="5"/>
@@ -50581,16 +50581,16 @@
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E367" s="10">
         <f t="shared" si="5"/>
@@ -50662,16 +50662,16 @@
     </row>
     <row r="368" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A368" s="11" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E368" s="10">
         <f t="shared" si="5"/>
@@ -50743,16 +50743,16 @@
     </row>
     <row r="369" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E369" s="10">
         <f t="shared" si="5"/>
@@ -50824,16 +50824,16 @@
     </row>
     <row r="370" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A370" s="11" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D370" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E370" s="10">
         <f t="shared" si="5"/>
@@ -50905,16 +50905,16 @@
     </row>
     <row r="371" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="E371" s="10">
         <f t="shared" si="5"/>
@@ -50986,16 +50986,16 @@
     </row>
     <row r="372" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B372" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D372" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E372" s="10">
         <f t="shared" si="5"/>
@@ -51067,16 +51067,16 @@
     </row>
     <row r="373" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A373" s="11" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B373" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E373" s="10">
         <f t="shared" si="5"/>
@@ -51148,16 +51148,16 @@
     </row>
     <row r="374" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A374" s="11" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E374" s="10">
         <f t="shared" si="5"/>
@@ -51229,16 +51229,16 @@
     </row>
     <row r="375" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E375" s="10">
         <f t="shared" si="5"/>
@@ -51310,16 +51310,16 @@
     </row>
     <row r="376" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A376" s="11" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="E376" s="10">
         <f t="shared" si="5"/>
@@ -51391,16 +51391,16 @@
     </row>
     <row r="377" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>1027</v>
+        <v>1086</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D377" s="11" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E377" s="10">
         <f t="shared" si="5"/>
@@ -51472,13 +51472,13 @@
     </row>
     <row r="378" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A378" s="11" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D378" s="11" t="s">
         <v>25</v>
@@ -51553,16 +51553,16 @@
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D379" s="13" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E379" s="10">
         <f t="shared" si="5"/>
@@ -51634,16 +51634,16 @@
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E380" s="10">
         <f t="shared" si="5"/>
@@ -51715,16 +51715,16 @@
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A381" s="11" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E381" s="10">
         <f t="shared" si="5"/>
@@ -51796,16 +51796,16 @@
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A382" s="11" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E382" s="10">
         <f t="shared" si="5"/>
@@ -51877,13 +51877,13 @@
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A383" s="11" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D383" s="11">
         <v>1234567810</v>
@@ -51958,13 +51958,13 @@
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A384" s="11" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D384" s="13" t="s">
         <v>76</v>
@@ -52039,16 +52039,16 @@
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A385" s="11" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D385" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E385" s="10">
         <f t="shared" si="5"/>
@@ -52120,19 +52120,19 @@
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A386" s="11" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D386" s="11" t="s">
         <v>80</v>
       </c>
       <c r="E386" s="10">
-        <f t="shared" ref="E386:E411" si="6">SUM(F386:Z386)</f>
+        <f t="shared" ref="E386:E399" si="6">SUM(F386:Z386)</f>
         <v>125</v>
       </c>
       <c r="F386" s="10" t="s">
@@ -52201,13 +52201,13 @@
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A387" s="11" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D387" s="11" t="s">
         <v>82</v>
@@ -52282,13 +52282,13 @@
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A388" s="11" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D388" s="11" t="s">
         <v>93</v>
@@ -52363,16 +52363,16 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A389" s="11" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E389" s="10">
         <f t="shared" si="6"/>
@@ -52444,16 +52444,16 @@
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E390" s="10">
         <f t="shared" si="6"/>
@@ -52525,16 +52525,16 @@
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A391" s="11" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D391" s="11" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="E391" s="10">
         <f t="shared" si="6"/>
@@ -52606,16 +52606,16 @@
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A392" s="11" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E392" s="10">
         <f t="shared" si="6"/>
@@ -52687,16 +52687,16 @@
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D393" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E393" s="10">
         <f t="shared" si="6"/>
@@ -52768,16 +52768,16 @@
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A394" s="11" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D394" s="11" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E394" s="10">
         <f t="shared" si="6"/>
@@ -52849,16 +52849,16 @@
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A395" s="11" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C395" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D395" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E395" s="10">
         <f t="shared" si="6"/>
@@ -52930,16 +52930,16 @@
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A396" s="11" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B396" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D396" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E396" s="10">
         <f t="shared" si="6"/>
@@ -53011,16 +53011,16 @@
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A397" s="11" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D397" s="11" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E397" s="10">
         <f t="shared" si="6"/>
@@ -53092,16 +53092,16 @@
     </row>
     <row r="398" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A398" s="11" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D398" s="11" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E398" s="10">
         <f t="shared" si="6"/>
@@ -53173,16 +53173,16 @@
     </row>
     <row r="399" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A399" s="11" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="C399" s="11" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D399" s="11" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E399" s="10">
         <f t="shared" si="6"/>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin Garg\git\PE4.7Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5426BC-6D60-417F-B076-254EB4544DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6F3E9-4B6D-4A90-A11E-9BB66981260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="1090">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3311,6 +3311,9 @@
   </si>
   <si>
     <t>ThemesTab</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -3755,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y132"/>
+  <dimension ref="A1:Z132"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3786,7 +3789,7 @@
     <col min="25" max="25" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3860,8 +3863,11 @@
       <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4086,7 +4092,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4386,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4536,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -4611,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -4686,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -4836,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -4911,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -13704,10 +13710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH63"/>
+  <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13744,7 +13750,7 @@
     <col min="34" max="34" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13847,8 +13853,11 @@
       <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI1" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -13953,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -14058,7 +14067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -14163,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -14268,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>275</v>
       </c>
@@ -14373,7 +14382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -14478,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -14583,7 +14592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -14684,7 +14693,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -14786,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>283</v>
       </c>
@@ -14888,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -14990,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>287</v>
       </c>
@@ -15092,7 +15101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>289</v>
       </c>
@@ -15194,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>291</v>
       </c>
@@ -15296,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -16627,7 +16636,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -16711,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -16729,7 +16738,7 @@
       </c>
       <c r="D30">
         <f t="shared" ref="D30" si="1">SUM(F30:AH30)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -16813,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -16933,7 +16942,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
@@ -16969,7 +16978,7 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -16987,7 +16996,7 @@
         <v>26</v>
       </c>
       <c r="V32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W32" t="s">
         <v>26</v>
@@ -16996,7 +17005,7 @@
         <v>26</v>
       </c>
       <c r="Y32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z32" t="s">
         <v>26</v>
@@ -17020,7 +17029,7 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH32">
         <v>0</v>
@@ -17035,7 +17044,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -17107,16 +17116,16 @@
         <v>26</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF33">
         <v>20</v>
@@ -17146,13 +17155,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
         <v>26</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -17341,7 +17350,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
@@ -17356,7 +17365,7 @@
         <v>26</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -17377,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -17647,7 +17656,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="E39" t="s">
         <v>26</v>
@@ -17683,7 +17692,7 @@
         <v>5</v>
       </c>
       <c r="P39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q39">
         <v>20</v>
@@ -17710,7 +17719,7 @@
         <v>26</v>
       </c>
       <c r="Y39">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s">
         <v>26</v>
@@ -17734,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -17749,7 +17758,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
@@ -17824,10 +17833,10 @@
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -18156,8 +18165,7 @@
         <v>334</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>26</v>
@@ -18232,10 +18240,10 @@
         <v>2</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -18244,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="AG44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH44">
         <v>0</v>
@@ -20337,10 +20345,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AH2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20379,7 +20387,7 @@
     <col min="34" max="34" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20482,8 +20490,11 @@
       <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI1" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>385</v>
       </c>
@@ -20584,7 +20595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>386</v>
       </c>
@@ -20686,7 +20697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>387</v>
       </c>
@@ -20788,7 +20799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>388</v>
       </c>
@@ -20897,10 +20908,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F622A7-A225-41DE-8365-E5D26D81ED07}">
-  <dimension ref="A1:Z399"/>
+  <dimension ref="A1:AA399"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B378" sqref="B378:B399"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20934,7 +20945,7 @@
     <col min="27" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -21013,8 +21024,11 @@
       <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>440</v>
       </c>
@@ -21095,7 +21109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>441</v>
       </c>
@@ -21176,7 +21190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>442</v>
       </c>
@@ -21257,7 +21271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>443</v>
       </c>
@@ -21338,7 +21352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>445</v>
       </c>
@@ -21419,7 +21433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>447</v>
       </c>
@@ -21500,7 +21514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>449</v>
       </c>
@@ -21581,7 +21595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>450</v>
       </c>
@@ -21662,7 +21676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>452</v>
       </c>
@@ -21743,7 +21757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>453</v>
       </c>
@@ -21824,7 +21838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>455</v>
       </c>
@@ -21905,7 +21919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>456</v>
       </c>
@@ -21986,7 +22000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>458</v>
       </c>
@@ -22067,7 +22081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>459</v>
       </c>
@@ -22148,7 +22162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>461</v>
       </c>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin Garg\git\PE4.7Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A6F3E9-4B6D-4A90-A11E-9BB66981260C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BF5EF0-7F43-471E-BD46-8944B19DA65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="1092">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3314,6 +3314,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>AR_Up60</t>
+  </si>
+  <si>
+    <t>AR_Up61</t>
   </si>
 </sst>
 </file>
@@ -13712,8 +13718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20002,6 +20008,9 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1090</v>
+      </c>
       <c r="B62">
         <v>56789012</v>
       </c>
@@ -20101,6 +20110,9 @@
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1091</v>
+      </c>
       <c r="B63">
         <v>56789012</v>
       </c>
@@ -20200,6 +20212,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B36" r:id="rId1" tooltip="Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Limited Reliance Industries" display="https://navatar61--tr2sb8.sandbox.lightning.force.com/lightning/r/0013C00000mphj3QAA/view" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin Garg\git\PE4.7Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BF5EF0-7F43-471E-BD46-8944B19DA65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F226B83-3BBA-44DC-9713-E8CA5084E6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4990" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="1092">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3767,7 +3767,7 @@
   <dimension ref="A1:Z132"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -13718,8 +13718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A63"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13859,9 +13859,7 @@
       <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>1089</v>
-      </c>
+      <c r="AI1" s="2"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -17152,7 +17150,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>26</v>
@@ -17224,7 +17222,7 @@
         <v>26</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -17239,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH34">
         <v>0</v>
@@ -17356,7 +17354,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
@@ -17419,7 +17417,7 @@
         <v>26</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="s">
         <v>26</v>
@@ -17431,10 +17429,10 @@
         <v>1</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -17443,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="AG36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH36">
         <v>0</v>
@@ -17764,7 +17762,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
@@ -17854,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.3">
@@ -20503,9 +20501,7 @@
       <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>1089</v>
-      </c>
+      <c r="AI1" s="2"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/ResearchDataSheet.xlsx
+++ b/ResearchDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitin Garg\git\PE4.7Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ravi Kumar\git\PE4.7Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F226B83-3BBA-44DC-9713-E8CA5084E6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8858B987-F8FD-4587-8543-D4661D313A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Others" sheetId="3" r:id="rId3"/>
     <sheet name="UpdatedRecordType" sheetId="4" r:id="rId4"/>
     <sheet name="CurrentRecord" sheetId="5" r:id="rId5"/>
+    <sheet name="ALLInteraction" sheetId="6" r:id="rId6"/>
+    <sheet name="ALLInteraction1" sheetId="7" r:id="rId7"/>
+    <sheet name="ALLInteraction2" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CurrentRecord!$A$1:$Z$399</definedName>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5114" uniqueCount="1182">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3320,6 +3323,276 @@
   </si>
   <si>
     <t>AR_Up61</t>
+  </si>
+  <si>
+    <t>All_Categories</t>
+  </si>
+  <si>
+    <t>AI_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>AI_02</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>AI_03</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>AI_04</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>DanInteract Event1&lt;break&gt;DanInteract Task1&lt;break&gt;DanInteract Task2&lt;break&gt;DanInteract TaskEmail3&lt;break&gt;DanInteract TaskEmail4&lt;break&gt;DanInteract TaskCall5&lt;break&gt;DanInteract TaskCall6&lt;break&gt;DanInteract Event3&lt;break&gt;DanInteract Event2&lt;break&gt;DanInteract Event4</t>
+  </si>
+  <si>
+    <t>AI_05</t>
+  </si>
+  <si>
+    <t>DanInteract Event1</t>
+  </si>
+  <si>
+    <t>AI_06</t>
+  </si>
+  <si>
+    <t>DanInteract Task1</t>
+  </si>
+  <si>
+    <t>AI_07</t>
+  </si>
+  <si>
+    <t>Interact</t>
+  </si>
+  <si>
+    <t>DanInteract Event1&lt;break&gt;DanInteract Task1&lt;break&gt;DanInteract Task2&lt;break&gt;DanInteract TaskEmail3&lt;break&gt;DanInteract TaskEmail4&lt;break&gt;DanInteract TaskCall5&lt;break&gt;DanInteract TaskCall6&lt;break&gt;DanInteract Event2</t>
+  </si>
+  <si>
+    <t>AI_08</t>
+  </si>
+  <si>
+    <t>DanInteract Event</t>
+  </si>
+  <si>
+    <t>DanInteract Event1&lt;break&gt;DanInteract Event3&lt;break&gt;DanInteract Event2&lt;break&gt;DanInteract Event4</t>
+  </si>
+  <si>
+    <t>AI_09</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>AI_10</t>
+  </si>
+  <si>
+    <t>This is task 6 to test Interactions page</t>
+  </si>
+  <si>
+    <t>DanInteract TaskCall6</t>
+  </si>
+  <si>
+    <t>AI_11</t>
+  </si>
+  <si>
+    <t>Dan Advisor1</t>
+  </si>
+  <si>
+    <t>AI_12</t>
+  </si>
+  <si>
+    <t>Dan Comp1</t>
+  </si>
+  <si>
+    <t>DanInteract Task2</t>
+  </si>
+  <si>
+    <t>AI_13</t>
+  </si>
+  <si>
+    <t>Dan StrgCorp4</t>
+  </si>
+  <si>
+    <t>DanInteract TaskCall5</t>
+  </si>
+  <si>
+    <t>AI_14</t>
+  </si>
+  <si>
+    <t>DanSellSideDeal 1</t>
+  </si>
+  <si>
+    <t>AI_15</t>
+  </si>
+  <si>
+    <t>Dan FS1-DanCapRaiseDeal 1</t>
+  </si>
+  <si>
+    <t>DanInteract Event1&lt;break&gt;DanInteract TaskEmail4</t>
+  </si>
+  <si>
+    <t>AI_16</t>
+  </si>
+  <si>
+    <t>Dan Theme 3</t>
+  </si>
+  <si>
+    <t>DanInteract TaskEmail3</t>
+  </si>
+  <si>
+    <t>AI_17</t>
+  </si>
+  <si>
+    <t>Dan CompContact1</t>
+  </si>
+  <si>
+    <t>AI_18</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>DanInteract Event3</t>
+  </si>
+  <si>
+    <t>AI_19</t>
+  </si>
+  <si>
+    <t>Dan Advisor2</t>
+  </si>
+  <si>
+    <t>DanInteract Event1&lt;break&gt;DanInteract Task1&lt;break&gt;DanInteract Event2</t>
+  </si>
+  <si>
+    <t>AI_20</t>
+  </si>
+  <si>
+    <t>Dan Comp2</t>
+  </si>
+  <si>
+    <t>DanInteract TaskEmail3&lt;break&gt;DanInteract Event4</t>
+  </si>
+  <si>
+    <t>AI_21</t>
+  </si>
+  <si>
+    <t>Dan FS3</t>
+  </si>
+  <si>
+    <t>DanInteract Event1&lt;break&gt;DanInteract TaskEmail4&lt;break&gt;DanInteract TaskCall5&lt;break&gt;DanInteract TaskCall6&lt;break&gt;DanInteract Event4</t>
+  </si>
+  <si>
+    <t>AI_22</t>
+  </si>
+  <si>
+    <t>Dan FS5</t>
+  </si>
+  <si>
+    <t>AI_23</t>
+  </si>
+  <si>
+    <t>Dan FS6</t>
+  </si>
+  <si>
+    <t>AI_24</t>
+  </si>
+  <si>
+    <t>Dan CompContact2</t>
+  </si>
+  <si>
+    <t>AI_25</t>
+  </si>
+  <si>
+    <t>DanAdvSrvDeal 1</t>
+  </si>
+  <si>
+    <t>AI_26</t>
+  </si>
+  <si>
+    <t>Dan FS6-DanPitchDeal 1</t>
+  </si>
+  <si>
+    <t>DanInteract TaskCall6&lt;break&gt;DanInteract Event2</t>
+  </si>
+  <si>
+    <t>AI_27</t>
+  </si>
+  <si>
+    <t>Dan Theme 2</t>
+  </si>
+  <si>
+    <t>AI_28</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>AI_29</t>
+  </si>
+  <si>
+    <t>DAN</t>
+  </si>
+  <si>
+    <t>AI_30</t>
+  </si>
+  <si>
+    <t>DanInteract FundR 5</t>
+  </si>
+  <si>
+    <t>AI_31</t>
+  </si>
+  <si>
+    <t>DanInteract Fund 2</t>
+  </si>
+  <si>
+    <t>DanInteract Task2&lt;break&gt;DanInteract Event2</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>DanInteract Event1Updated&lt;break&gt;DanInteract Task1Updated</t>
+  </si>
+  <si>
+    <t>DanInteract</t>
+  </si>
+  <si>
+    <t>DanInteract Event1&lt;break&gt;UpdatedDanInteract Task1&lt;break&gt;UpdatedDanInteract Task2&lt;break&gt;DanInteract TaskEmail3&lt;break&gt;DanInteract TaskEmail4&lt;break&gt;DanInteract TaskCall5&lt;break&gt;DanInteract TaskCall6&lt;break&gt;DanInteract Event3&lt;break&gt;DanInteract Event2&lt;break&gt;DanInteract Event4</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>DanInteract Task1Updated</t>
+  </si>
+  <si>
+    <t>Event1</t>
+  </si>
+  <si>
+    <t>DanInteract Event1Updated</t>
+  </si>
+  <si>
+    <t>DanInteractTaskNewTab</t>
+  </si>
+  <si>
+    <t>DanInteract TaskDeal&lt;break&gt;DanInteract Task2</t>
+  </si>
+  <si>
+    <t>DanCapRaiseDeal 5</t>
+  </si>
+  <si>
+    <t>DanInteract TaskDeal</t>
+  </si>
+  <si>
+    <t>DanPitchDeal 5</t>
   </si>
 </sst>
 </file>
@@ -13718,8 +13991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53351,4 +53624,525 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD5F4D7-C453-4E38-8F12-45F9DE27C2EA}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="187.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B31" r:id="rId1" tooltip="DanInteract FundR 5" display="https://pev38or79--peauto3.sandbox.lightning.force.com/a0GDS000004kAjz2AE" xr:uid="{89D72C2A-B264-4D16-B4B6-222D23C66FBD}"/>
+    <hyperlink ref="B32" r:id="rId2" tooltip="DanInteract Fund 2" display="https://pev38or79--peauto3.sandbox.lightning.force.com/a0DDS00000MGBoR2AX" xr:uid="{0EF4F849-DD2E-4C7B-BA81-1CEAB0136535}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51772F38-883C-4685-B28B-EB3416788276}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8968C67-E9FD-4091-A5C1-BA1C193ACAC0}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>